--- a/Divisions/B1.xlsx
+++ b/Divisions/B1.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\Divisions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11280" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" r:id="rId3" sheetId="1"/>
-    <sheet name="Form" r:id="rId4" sheetId="2"/>
-    <sheet name="Goals scored" r:id="rId5" sheetId="3"/>
-    <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
-    <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
-    <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Form" sheetId="2" r:id="rId2"/>
+    <sheet name="Goals scored" sheetId="3" r:id="rId3"/>
+    <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
+    <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
+    <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
+    <sheet name="L6" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10520" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10614" uniqueCount="340">
   <si>
     <t>Team</t>
   </si>
@@ -809,16 +817,243 @@
   </si>
   <si>
     <t>3.3529</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Anderlecht,W D W W W W</t>
+  </si>
+  <si>
+    <t>Antwerp,L W W L W W</t>
+  </si>
+  <si>
+    <t>Beerschot VA,D W L W L L</t>
+  </si>
+  <si>
+    <t>Cercle Brugge,W L L W W D</t>
+  </si>
+  <si>
+    <t>Charleroi,D D D L L L</t>
+  </si>
+  <si>
+    <t>Club Brugge,D W L W L W</t>
+  </si>
+  <si>
+    <t>Eupen,W D W L L W</t>
+  </si>
+  <si>
+    <t>Genk,W W D W W L</t>
+  </si>
+  <si>
+    <t>Gent,W L W L W W</t>
+  </si>
+  <si>
+    <t>Kortrijk,L L L L W L</t>
+  </si>
+  <si>
+    <t>Mechelen,L D D L W W</t>
+  </si>
+  <si>
+    <t>Mouscron,D W L D L L</t>
+  </si>
+  <si>
+    <t>Oostende,W L W L W D</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven,W D D L L L</t>
+  </si>
+  <si>
+    <t>St Truiden,L D W W L L</t>
+  </si>
+  <si>
+    <t>Standard,L L D W W W</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren,L L W L L W</t>
+  </si>
+  <si>
+    <t>Waregem,W L L W L L</t>
+  </si>
+  <si>
+    <t>Anderlecht,3 1 4 4 2 1</t>
+  </si>
+  <si>
+    <t>Antwerp,0 4 2 1 3 3</t>
+  </si>
+  <si>
+    <t>Beerschot VA,2 2 1 2 1 0</t>
+  </si>
+  <si>
+    <t>Cercle Brugge,2 0 0 2 3 1</t>
+  </si>
+  <si>
+    <t>Charleroi,0 1 1 1 0 2</t>
+  </si>
+  <si>
+    <t>Club Brugge,1 4 0 2 1 4</t>
+  </si>
+  <si>
+    <t>Eupen,2 3 2 1 0 3</t>
+  </si>
+  <si>
+    <t>Genk,2 2 2 3 4 2</t>
+  </si>
+  <si>
+    <t>Gent,1 0 1 1 4 7</t>
+  </si>
+  <si>
+    <t>Kortrijk,1 2 0 1 4 1</t>
+  </si>
+  <si>
+    <t>Mechelen,0 1 2 1 4 4</t>
+  </si>
+  <si>
+    <t>Mouscron,2 1 0 1 2 2</t>
+  </si>
+  <si>
+    <t>Oostende,2 0 1 0 2 1</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven,2 3 2 2 0 1</t>
+  </si>
+  <si>
+    <t>St Truiden,0 0 2 4 0 0</t>
+  </si>
+  <si>
+    <t>Standard,1 0 2 2 4 3</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren,0 1 2 2 3 2</t>
+  </si>
+  <si>
+    <t>Waregem,2 0 1 2 2 2</t>
+  </si>
+  <si>
+    <t>Anderlecht,1 1 1 1 1 0</t>
+  </si>
+  <si>
+    <t>Antwerp,2 2 0 4 2 2</t>
+  </si>
+  <si>
+    <t>Beerschot VA,2 1 2 1 2 3</t>
+  </si>
+  <si>
+    <t>Cercle Brugge,0 2 1 1 0 1</t>
+  </si>
+  <si>
+    <t>Charleroi,0 1 1 2 4 3</t>
+  </si>
+  <si>
+    <t>Club Brugge,1 0 2 1 2 2</t>
+  </si>
+  <si>
+    <t>Eupen,0 3 0 2 4 2</t>
+  </si>
+  <si>
+    <t>Genk,1 0 2 2 0 3</t>
+  </si>
+  <si>
+    <t>Gent,0 4 0 2 0 2</t>
+  </si>
+  <si>
+    <t>Kortrijk,2 4 2 2 3 4</t>
+  </si>
+  <si>
+    <t>Mechelen,2 1 2 2 2 1</t>
+  </si>
+  <si>
+    <t>Mouscron,2 0 1 1 3 4</t>
+  </si>
+  <si>
+    <t>Oostende,0 1 0 2 1 1</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven,0 3 2 3 3 2</t>
+  </si>
+  <si>
+    <t>St Truiden,2 0 1 2 4 1</t>
+  </si>
+  <si>
+    <t>Standard,3 1 2 1 0 0</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren,2 2 0 4 4 1</t>
+  </si>
+  <si>
+    <t>Waregem,1 3 4 1 4 7</t>
+  </si>
+  <si>
+    <t>Anderlecht,4 2 5 5 3 1</t>
+  </si>
+  <si>
+    <t>Antwerp,2 6 2 5 5 5</t>
+  </si>
+  <si>
+    <t>Beerschot VA,4 3 3 3 3 3</t>
+  </si>
+  <si>
+    <t>Cercle Brugge,2 2 1 3 3 2</t>
+  </si>
+  <si>
+    <t>Charleroi,0 2 2 3 4 5</t>
+  </si>
+  <si>
+    <t>Club Brugge,2 4 2 3 3 6</t>
+  </si>
+  <si>
+    <t>Eupen,2 6 2 3 4 5</t>
+  </si>
+  <si>
+    <t>Genk,3 2 4 5 4 5</t>
+  </si>
+  <si>
+    <t>Gent,1 4 1 3 4 9</t>
+  </si>
+  <si>
+    <t>Kortrijk,3 6 2 3 7 5</t>
+  </si>
+  <si>
+    <t>Mechelen,2 2 4 3 6 5</t>
+  </si>
+  <si>
+    <t>Mouscron,4 1 1 2 5 6</t>
+  </si>
+  <si>
+    <t>Oostende,2 1 1 2 3 2</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven,2 6 4 5 3 3</t>
+  </si>
+  <si>
+    <t>St Truiden,2 0 3 6 4 1</t>
+  </si>
+  <si>
+    <t>Standard,4 1 4 3 4 3</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren,2 3 2 6 7 3</t>
+  </si>
+  <si>
+    <t>Waregem,3 3 5 3 6 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -830,7 +1065,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -848,19 +1083,292 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -889,7 +1397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -921,7 +1429,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -953,7 +1461,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -985,7 +1493,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1525,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1049,7 +1557,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1589,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1113,7 +1621,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1145,7 +1653,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1177,7 +1685,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1209,7 +1717,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1241,7 +1749,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1273,7 +1781,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1305,7 +1813,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1337,7 +1845,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1369,7 +1877,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1401,7 +1909,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1433,7 +1941,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1466,20 +1974,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DZ19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -1868,7 +2375,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2260,7 +2767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2652,7 +3159,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -3044,7 +3551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -3436,7 +3943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -3828,7 +4335,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -4220,7 +4727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4612,7 +5119,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5004,7 +5511,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -5396,7 +5903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -5788,7 +6295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -6180,7 +6687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -6572,7 +7079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -6964,7 +7471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -7356,7 +7863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -7748,7 +8255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -8140,7 +8647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -8532,7 +9039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -8925,20 +9432,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DZ19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -9327,7 +9833,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -9719,7 +10225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -10111,7 +10617,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -10503,7 +11009,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -10895,7 +11401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -11287,7 +11793,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -11679,7 +12185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -12071,7 +12577,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12463,7 +12969,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -12855,7 +13361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -13247,7 +13753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -13639,7 +14145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -14031,7 +14537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -14423,7 +14929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -14815,7 +15321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -15207,7 +15713,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -15599,7 +16105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -15991,7 +16497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -16384,20 +16890,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DZ19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -16786,7 +17291,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -17178,7 +17683,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -17570,7 +18075,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -17962,7 +18467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -18354,7 +18859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -18746,7 +19251,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -19138,7 +19643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -19530,7 +20035,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -19922,7 +20427,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -20314,7 +20819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -20706,7 +21211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -21098,7 +21603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -21490,7 +21995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -21882,7 +22387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -22274,7 +22779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -22666,7 +23171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -23058,7 +23563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -23450,7 +23955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -23843,20 +24348,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DZ19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -24245,7 +24749,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -24637,7 +25141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -25029,7 +25533,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -25421,7 +25925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -25813,7 +26317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -26205,7 +26709,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -26597,7 +27101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -26989,7 +27493,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -27381,7 +27885,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -27773,7 +28277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -28165,7 +28669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -28557,7 +29061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -28949,7 +29453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -29341,7 +29845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -29733,7 +30237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -30125,7 +30629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -30517,7 +31021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -30909,7 +31413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -31302,20 +31806,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>29</v>
       </c>
@@ -31386,7 +31889,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -31460,7 +31963,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -31534,7 +32037,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -31608,7 +32111,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -31682,7 +32185,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -31756,7 +32259,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -31830,7 +32333,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -31904,7 +32407,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -31978,7 +32481,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -32052,7 +32555,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -32126,7 +32629,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -32200,7 +32703,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -32274,7 +32777,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -32348,7 +32851,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -32422,7 +32925,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -32496,7 +32999,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -32570,7 +33073,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -32644,7 +33147,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -32719,6 +33222,347 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Divisions/B1.xlsx
+++ b/Divisions/B1.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\Divisions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11280" activeTab="6"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Form" sheetId="2" r:id="rId2"/>
-    <sheet name="Goals scored" sheetId="3" r:id="rId3"/>
-    <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
-    <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
-    <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
-    <sheet name="L6" sheetId="7" r:id="rId7"/>
+    <sheet name="Table" r:id="rId3" sheetId="1"/>
+    <sheet name="Form" r:id="rId4" sheetId="2"/>
+    <sheet name="Goals scored" r:id="rId5" sheetId="3"/>
+    <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
+    <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
+    <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
+    <sheet name="L6" r:id="rId10" sheetId="8"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10614" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10782" uniqueCount="461">
   <si>
     <t>Team</t>
   </si>
@@ -817,6 +811,369 @@
   </si>
   <si>
     <t>3.3529</t>
+  </si>
+  <si>
+    <t>Group.1</t>
+  </si>
+  <si>
+    <t>hst</t>
+  </si>
+  <si>
+    <t>ast</t>
+  </si>
+  <si>
+    <t>TST</t>
+  </si>
+  <si>
+    <t>TFthg</t>
+  </si>
+  <si>
+    <t>Avg_Fthg</t>
+  </si>
+  <si>
+    <t>TFtag</t>
+  </si>
+  <si>
+    <t>Avg_Ftag</t>
+  </si>
+  <si>
+    <t>TGS</t>
+  </si>
+  <si>
+    <t>HSTC</t>
+  </si>
+  <si>
+    <t>ASTC</t>
+  </si>
+  <si>
+    <t>TSTC</t>
+  </si>
+  <si>
+    <t>hsc</t>
+  </si>
+  <si>
+    <t>asc</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>TFthc</t>
+  </si>
+  <si>
+    <t>Avg_Fthc</t>
+  </si>
+  <si>
+    <t>TFtac</t>
+  </si>
+  <si>
+    <t>Avg_Ftac</t>
+  </si>
+  <si>
+    <t>TGC</t>
+  </si>
+  <si>
+    <t>HSCC</t>
+  </si>
+  <si>
+    <t>ASCC</t>
+  </si>
+  <si>
+    <t>TSCC</t>
+  </si>
+  <si>
+    <t>31.25%</t>
+  </si>
+  <si>
+    <t>36.14%</t>
+  </si>
+  <si>
+    <t>40.51%</t>
+  </si>
+  <si>
+    <t>35.71%</t>
+  </si>
+  <si>
+    <t>21.18%</t>
+  </si>
+  <si>
+    <t>30.63%</t>
+  </si>
+  <si>
+    <t>31.58%</t>
+  </si>
+  <si>
+    <t>41.30%</t>
+  </si>
+  <si>
+    <t>30.53%</t>
+  </si>
+  <si>
+    <t>27.59%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>23.94%</t>
+  </si>
+  <si>
+    <t>43.42%</t>
+  </si>
+  <si>
+    <t>34.48%</t>
+  </si>
+  <si>
+    <t>29.89%</t>
+  </si>
+  <si>
+    <t>26.58%</t>
+  </si>
+  <si>
+    <t>35.94%</t>
+  </si>
+  <si>
+    <t>40.00%</t>
+  </si>
+  <si>
+    <t>37.50%</t>
+  </si>
+  <si>
+    <t>37.68%</t>
+  </si>
+  <si>
+    <t>26.79%</t>
+  </si>
+  <si>
+    <t>43.08%</t>
+  </si>
+  <si>
+    <t>45.35%</t>
+  </si>
+  <si>
+    <t>24.69%</t>
+  </si>
+  <si>
+    <t>40.85%</t>
+  </si>
+  <si>
+    <t>28.89%</t>
+  </si>
+  <si>
+    <t>26.32%</t>
+  </si>
+  <si>
+    <t>27.47%</t>
+  </si>
+  <si>
+    <t>25.86%</t>
+  </si>
+  <si>
+    <t>21.62%</t>
+  </si>
+  <si>
+    <t>36.59%</t>
+  </si>
+  <si>
+    <t>36.21%</t>
+  </si>
+  <si>
+    <t>31.71%</t>
+  </si>
+  <si>
+    <t>38.96%</t>
+  </si>
+  <si>
+    <t>35.17%</t>
+  </si>
+  <si>
+    <t>36.77%</t>
+  </si>
+  <si>
+    <t>39.19%</t>
+  </si>
+  <si>
+    <t>31.75%</t>
+  </si>
+  <si>
+    <t>30.67%</t>
+  </si>
+  <si>
+    <t>37.06%</t>
+  </si>
+  <si>
+    <t>28.03%</t>
+  </si>
+  <si>
+    <t>41.10%</t>
+  </si>
+  <si>
+    <t>29.73%</t>
+  </si>
+  <si>
+    <t>26.99%</t>
+  </si>
+  <si>
+    <t>30.34%</t>
+  </si>
+  <si>
+    <t>24.81%</t>
+  </si>
+  <si>
+    <t>32.67%</t>
+  </si>
+  <si>
+    <t>35.06%</t>
+  </si>
+  <si>
+    <t>35.34%</t>
+  </si>
+  <si>
+    <t>30.77%</t>
+  </si>
+  <si>
+    <t>37.59%</t>
+  </si>
+  <si>
+    <t>23.40%</t>
+  </si>
+  <si>
+    <t>36.23%</t>
+  </si>
+  <si>
+    <t>41.94%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>39.47%</t>
+  </si>
+  <si>
+    <t>28.57%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>37.23%</t>
+  </si>
+  <si>
+    <t>42.86%</t>
+  </si>
+  <si>
+    <t>27.50%</t>
+  </si>
+  <si>
+    <t>20.91%</t>
+  </si>
+  <si>
+    <t>28.17%</t>
+  </si>
+  <si>
+    <t>28.99%</t>
+  </si>
+  <si>
+    <t>39.60%</t>
+  </si>
+  <si>
+    <t>38.78%</t>
+  </si>
+  <si>
+    <t>36.51%</t>
+  </si>
+  <si>
+    <t>28.05%</t>
+  </si>
+  <si>
+    <t>41.67%</t>
+  </si>
+  <si>
+    <t>30.12%</t>
+  </si>
+  <si>
+    <t>44.00%</t>
+  </si>
+  <si>
+    <t>20.37%</t>
+  </si>
+  <si>
+    <t>28.41%</t>
+  </si>
+  <si>
+    <t>30.43%</t>
+  </si>
+  <si>
+    <t>25.93%</t>
+  </si>
+  <si>
+    <t>31.88%</t>
+  </si>
+  <si>
+    <t>34.78%</t>
+  </si>
+  <si>
+    <t>34.41%</t>
+  </si>
+  <si>
+    <t>33.90%</t>
+  </si>
+  <si>
+    <t>33.64%</t>
+  </si>
+  <si>
+    <t>35.56%</t>
+  </si>
+  <si>
+    <t>30.30%</t>
+  </si>
+  <si>
+    <t>28.44%</t>
+  </si>
+  <si>
+    <t>30.91%</t>
+  </si>
+  <si>
+    <t>31.79%</t>
+  </si>
+  <si>
+    <t>36.84%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
+  </si>
+  <si>
+    <t>33.54%</t>
+  </si>
+  <si>
+    <t>29.63%</t>
+  </si>
+  <si>
+    <t>30.88%</t>
+  </si>
+  <si>
+    <t>34.97%</t>
+  </si>
+  <si>
+    <t>38.85%</t>
+  </si>
+  <si>
+    <t>31.21%</t>
+  </si>
+  <si>
+    <t>33.61%</t>
+  </si>
+  <si>
+    <t>27.19%</t>
+  </si>
+  <si>
+    <t>32.30%</t>
+  </si>
+  <si>
+    <t>33.06%</t>
+  </si>
+  <si>
+    <t>35.00%</t>
   </si>
   <si>
     <t>Form</t>
@@ -1050,10 +1407,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1065,7 +1423,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1083,292 +1441,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1429,7 +1514,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1461,7 +1546,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1493,7 +1578,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1525,7 +1610,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1557,7 +1642,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1589,7 +1674,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1621,7 +1706,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1653,7 +1738,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1685,7 +1770,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1717,7 +1802,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1749,7 +1834,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1781,7 +1866,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1813,7 +1898,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1845,7 +1930,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1877,7 +1962,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1909,7 +1994,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1941,7 +2026,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1974,19 +2059,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DZ19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -2375,7 +2461,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2767,7 +2853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3159,7 +3245,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -3551,7 +3637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -3943,7 +4029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -4335,7 +4421,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -4727,7 +4813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -5119,7 +5205,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5511,7 +5597,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -5903,7 +5989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -6295,7 +6381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -6687,7 +6773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -7079,7 +7165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -7471,7 +7557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -7863,7 +7949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -8255,7 +8341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -8647,7 +8733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -9039,7 +9125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -9432,19 +9518,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DZ19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -9833,7 +9920,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -10225,7 +10312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -10617,7 +10704,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -11009,7 +11096,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -11401,7 +11488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -11793,7 +11880,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -12185,7 +12272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -12577,7 +12664,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12969,7 +13056,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -13361,7 +13448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -13753,7 +13840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -14145,7 +14232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -14537,7 +14624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -14929,7 +15016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -15321,7 +15408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -15713,7 +15800,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -16105,7 +16192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -16497,7 +16584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -16890,19 +16977,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DZ19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -17291,7 +17379,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -17683,7 +17771,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -18075,7 +18163,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -18467,7 +18555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -18859,7 +18947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -19251,7 +19339,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -19643,7 +19731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -20035,7 +20123,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -20427,7 +20515,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -20819,7 +20907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -21211,7 +21299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -21603,7 +21691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -21995,7 +22083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -22387,7 +22475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -22779,7 +22867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -23171,7 +23259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -23563,7 +23651,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -23955,7 +24043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -24348,19 +24436,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DZ19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -24749,7 +24838,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -25141,7 +25230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -25533,7 +25622,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -25925,7 +26014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -26317,7 +26406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -26709,7 +26798,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -27101,7 +27190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -27493,7 +27582,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -27885,7 +27974,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -28277,7 +28366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -28669,7 +28758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -29061,7 +29150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -29453,7 +29542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -29845,7 +29934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -30237,7 +30326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -30629,7 +30718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -31021,7 +31110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -31413,7 +31502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -31806,19 +31895,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>29</v>
       </c>
@@ -31889,7 +31979,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -31963,7 +32053,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -32037,7 +32127,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -32111,7 +32201,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -32185,7 +32275,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -32259,7 +32349,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -32333,7 +32423,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -32407,7 +32497,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -32481,7 +32571,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -32555,7 +32645,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -32629,7 +32719,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -32703,7 +32793,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -32777,7 +32867,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -32851,7 +32941,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -32925,7 +33015,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -32999,7 +33089,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -33073,7 +33163,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -33147,7 +33237,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -33222,27 +33312,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>264</v>
       </c>
@@ -33255,314 +33338,1788 @@
       <c r="E1" t="s">
         <v>267</v>
       </c>
+      <c r="F1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O1" t="s">
+        <v>276</v>
+      </c>
+      <c r="P1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R1" t="s">
+        <v>279</v>
+      </c>
+      <c r="S1" t="s">
+        <v>280</v>
+      </c>
+      <c r="T1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V1" t="s">
+        <v>283</v>
+      </c>
+      <c r="W1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="H2" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.5294117647058822</v>
+      </c>
+      <c r="J2" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" t="s">
         <v>304</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M2" t="s">
+        <v>321</v>
+      </c>
+      <c r="N2" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="T2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.3529411764705883</v>
+      </c>
+      <c r="V2" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>338</v>
+      </c>
+      <c r="X2" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="H3" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.588235294117647</v>
+      </c>
+      <c r="J3" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>288</v>
+      </c>
+      <c r="L3" t="s">
+        <v>305</v>
+      </c>
+      <c r="M3" t="s">
         <v>322</v>
       </c>
+      <c r="N3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="T3" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.3529411764705883</v>
+      </c>
+      <c r="V3" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>339</v>
+      </c>
+      <c r="X3" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>371</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.8823529411764706</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.5294117647058822</v>
+      </c>
+      <c r="J4" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L4" t="s">
+        <v>306</v>
+      </c>
+      <c r="M4" t="s">
         <v>323</v>
       </c>
+      <c r="N4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.7058823529411764</v>
+      </c>
+      <c r="T4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.0588235294117645</v>
+      </c>
+      <c r="V4" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>323</v>
+      </c>
+      <c r="X4" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>289</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="J5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L5" t="s">
         <v>307</v>
       </c>
-      <c r="E5" t="s">
-        <v>325</v>
+      <c r="M5" t="s">
+        <v>324</v>
+      </c>
+      <c r="N5" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5294117647058822</v>
+      </c>
+      <c r="T5" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="V5" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>340</v>
+      </c>
+      <c r="X5" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="H6" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.6470588235294117</v>
+      </c>
+      <c r="J6" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>291</v>
+      </c>
+      <c r="L6" t="s">
         <v>308</v>
       </c>
-      <c r="E6" t="s">
-        <v>326</v>
+      <c r="M6" t="s">
+        <v>325</v>
+      </c>
+      <c r="N6" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="T6" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.9411764705882353</v>
+      </c>
+      <c r="V6" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>296</v>
+      </c>
+      <c r="X6" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.2941176470588234</v>
+      </c>
+      <c r="J7" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L7" t="s">
         <v>309</v>
       </c>
-      <c r="E7" t="s">
-        <v>327</v>
+      <c r="M7" t="s">
+        <v>326</v>
+      </c>
+      <c r="N7" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="T7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="V7" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>341</v>
+      </c>
+      <c r="X7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.411764705882353</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="J8" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>293</v>
+      </c>
+      <c r="L8" t="s">
         <v>310</v>
       </c>
-      <c r="E8" t="s">
-        <v>328</v>
+      <c r="M8" t="s">
+        <v>327</v>
+      </c>
+      <c r="N8" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="T8" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="V8" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>342</v>
+      </c>
+      <c r="X8" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.235294117647059</v>
+      </c>
+      <c r="H9" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.7058823529411764</v>
+      </c>
+      <c r="J9" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>294</v>
+      </c>
+      <c r="L9" t="s">
         <v>311</v>
       </c>
-      <c r="E9" t="s">
-        <v>329</v>
+      <c r="M9" t="s">
+        <v>328</v>
+      </c>
+      <c r="N9" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="T9" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.6470588235294117</v>
+      </c>
+      <c r="V9" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>343</v>
+      </c>
+      <c r="X9" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.7058823529411764</v>
+      </c>
+      <c r="H10" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.5294117647058822</v>
+      </c>
+      <c r="J10" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>295</v>
+      </c>
+      <c r="L10" t="s">
         <v>312</v>
       </c>
-      <c r="E10" t="s">
-        <v>330</v>
+      <c r="M10" t="s">
+        <v>329</v>
+      </c>
+      <c r="N10" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.2352941176470589</v>
+      </c>
+      <c r="T10" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.2352941176470589</v>
+      </c>
+      <c r="V10" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>344</v>
+      </c>
+      <c r="X10" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" t="s">
-        <v>295</v>
-      </c>
-      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.411764705882353</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="J11" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>296</v>
+      </c>
+      <c r="L11" t="s">
         <v>313</v>
       </c>
-      <c r="E11" t="s">
-        <v>331</v>
+      <c r="M11" t="s">
+        <v>330</v>
+      </c>
+      <c r="N11" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.0588235294117645</v>
+      </c>
+      <c r="T11" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.2941176470588236</v>
+      </c>
+      <c r="V11" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>345</v>
+      </c>
+      <c r="X11" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" t="s">
-        <v>296</v>
-      </c>
-      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.7058823529411764</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="J12" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>297</v>
+      </c>
+      <c r="L12" t="s">
         <v>314</v>
       </c>
-      <c r="E12" t="s">
-        <v>332</v>
+      <c r="M12" t="s">
+        <v>331</v>
+      </c>
+      <c r="N12" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="T12" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.411764705882353</v>
+      </c>
+      <c r="V12" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>346</v>
+      </c>
+      <c r="X12" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>378</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="J13" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>298</v>
+      </c>
+      <c r="L13" t="s">
         <v>315</v>
       </c>
-      <c r="E13" t="s">
-        <v>333</v>
+      <c r="M13" t="s">
+        <v>332</v>
+      </c>
+      <c r="N13" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.2941176470588236</v>
+      </c>
+      <c r="T13" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.8823529411764706</v>
+      </c>
+      <c r="V13" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>347</v>
+      </c>
+      <c r="X13" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
-      </c>
-      <c r="C14" t="s">
-        <v>298</v>
-      </c>
-      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.9411764705882353</v>
+      </c>
+      <c r="H14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="J14" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>299</v>
+      </c>
+      <c r="L14" t="s">
         <v>316</v>
       </c>
-      <c r="E14" t="s">
-        <v>334</v>
+      <c r="M14" t="s">
+        <v>333</v>
+      </c>
+      <c r="N14" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.2352941176470589</v>
+      </c>
+      <c r="T14" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="V14" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>297</v>
+      </c>
+      <c r="X14" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C15" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.411764705882353</v>
+      </c>
+      <c r="H15" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="J15" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>297</v>
+      </c>
+      <c r="L15" t="s">
         <v>317</v>
       </c>
-      <c r="E15" t="s">
-        <v>335</v>
+      <c r="M15" t="s">
+        <v>334</v>
+      </c>
+      <c r="N15" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.3529411764705883</v>
+      </c>
+      <c r="T15" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.1176470588235294</v>
+      </c>
+      <c r="V15" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>348</v>
+      </c>
+      <c r="X15" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>282</v>
-      </c>
-      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="H16" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.2352941176470589</v>
+      </c>
+      <c r="J16" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="K16" t="s">
         <v>300</v>
       </c>
-      <c r="D16" t="s">
+      <c r="L16" t="s">
         <v>318</v>
       </c>
-      <c r="E16" t="s">
-        <v>336</v>
+      <c r="M16" t="s">
+        <v>335</v>
+      </c>
+      <c r="N16" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="T16" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.8823529411764706</v>
+      </c>
+      <c r="V16" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>349</v>
+      </c>
+      <c r="X16" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.5294117647058822</v>
+      </c>
+      <c r="H17" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.5294117647058822</v>
+      </c>
+      <c r="J17" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="K17" t="s">
         <v>301</v>
       </c>
-      <c r="D17" t="s">
+      <c r="L17" t="s">
         <v>319</v>
       </c>
-      <c r="E17" t="s">
-        <v>337</v>
+      <c r="M17" t="s">
+        <v>336</v>
+      </c>
+      <c r="N17" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="T17" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.2352941176470589</v>
+      </c>
+      <c r="V17" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>350</v>
+      </c>
+      <c r="X17" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>383</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.2352941176470589</v>
+      </c>
+      <c r="H18" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.3529411764705883</v>
+      </c>
+      <c r="J18" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="K18" t="s">
         <v>302</v>
       </c>
-      <c r="D18" t="s">
-        <v>320</v>
-      </c>
-      <c r="E18" t="s">
-        <v>338</v>
+      <c r="L18" t="s">
+        <v>303</v>
+      </c>
+      <c r="M18" t="s">
+        <v>336</v>
+      </c>
+      <c r="N18" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.3529411764705883</v>
+      </c>
+      <c r="T18" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="V18" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>351</v>
+      </c>
+      <c r="X18" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>384</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>285</v>
-      </c>
-      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.3529411764705883</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="J19" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="K19" t="s">
         <v>303</v>
       </c>
-      <c r="D19" t="s">
-        <v>321</v>
-      </c>
-      <c r="E19" t="s">
-        <v>339</v>
+      <c r="L19" t="s">
+        <v>320</v>
+      </c>
+      <c r="M19" t="s">
+        <v>337</v>
+      </c>
+      <c r="N19" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.235294117647059</v>
+      </c>
+      <c r="T19" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.8235294117647058</v>
+      </c>
+      <c r="V19" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>352</v>
+      </c>
+      <c r="X19" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D10" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D11" t="s">
+        <v>434</v>
+      </c>
+      <c r="E11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D12" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>418</v>
+      </c>
+      <c r="D13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E13" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" t="s">
+        <v>419</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" t="s">
+        <v>420</v>
+      </c>
+      <c r="D15" t="s">
+        <v>438</v>
+      </c>
+      <c r="E15" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D16" t="s">
+        <v>439</v>
+      </c>
+      <c r="E16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17" t="s">
+        <v>422</v>
+      </c>
+      <c r="D17" t="s">
+        <v>440</v>
+      </c>
+      <c r="E17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>405</v>
+      </c>
+      <c r="C18" t="s">
+        <v>423</v>
+      </c>
+      <c r="D18" t="s">
+        <v>441</v>
+      </c>
+      <c r="E18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C19" t="s">
+        <v>424</v>
+      </c>
+      <c r="D19" t="s">
+        <v>442</v>
+      </c>
+      <c r="E19" t="s">
+        <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Divisions/B1.xlsx
+++ b/Divisions/B1.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\Divisions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="701" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" r:id="rId3" sheetId="1"/>
-    <sheet name="Form" r:id="rId4" sheetId="2"/>
-    <sheet name="Goals scored" r:id="rId5" sheetId="3"/>
-    <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
-    <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
-    <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
-    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
-    <sheet name="L6" r:id="rId10" sheetId="8"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Form" sheetId="2" r:id="rId2"/>
+    <sheet name="Goals scored" sheetId="3" r:id="rId3"/>
+    <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
+    <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
+    <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
+    <sheet name="Shots Analysis" sheetId="7" r:id="rId7"/>
+    <sheet name="L6" sheetId="8" r:id="rId8"/>
+    <sheet name="L6_2" sheetId="9" r:id="rId9"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10782" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10895" uniqueCount="480">
   <si>
     <t>Team</t>
   </si>
@@ -1402,16 +1410,72 @@
   </si>
   <si>
     <t>Waregem,3 3 5 3 6 9</t>
+  </si>
+  <si>
+    <t>Team against</t>
+  </si>
+  <si>
+    <t>Anderlecht,Standard Mechelen Waregem Antwerp Club Brugge St Truiden</t>
+  </si>
+  <si>
+    <t>Antwerp,Oud-Heverlee Leuven Kortrijk Club Brugge Anderlecht Mouscron Genk</t>
+  </si>
+  <si>
+    <t>Beerschot VA,Mouscron Waasland-Beveren Cercle Brugge Charleroi Oostende Standard</t>
+  </si>
+  <si>
+    <t>Cercle Brugge,Waasland-Beveren Genk Gent Beerschot VA Oud-Heverlee Leuven Oostende</t>
+  </si>
+  <si>
+    <t>Charleroi,St Truiden Club Brugge Mouscron Beerschot VA Gent Eupen</t>
+  </si>
+  <si>
+    <t>Club Brugge,Charleroi Gent Antwerp Kortrijk Anderlecht Mouscron</t>
+  </si>
+  <si>
+    <t>Eupen,St Truiden Oud-Heverlee Leuven Kortrijk Waregem Standard Charleroi</t>
+  </si>
+  <si>
+    <t>Genk,Charleroi Cercle Brugge Standard Oud-Heverlee Leuven St Truiden Antwerp</t>
+  </si>
+  <si>
+    <t>Gent,Oostende Club Brugge Cercle Brugge Standard Charleroi Waregem</t>
+  </si>
+  <si>
+    <t>Kortrijk,Waregem Antwerp Eupen Club Brugge Waasland-Beveren Mechelen</t>
+  </si>
+  <si>
+    <t>Mechelen,Oostende Anderlecht Oud-Heverlee Leuven St Truiden Waregem Kortrijk</t>
+  </si>
+  <si>
+    <t>Mouscron,Beerschot VA Standard Oostende Charleroi Antwerp Club Brugge</t>
+  </si>
+  <si>
+    <t>Oostende,Mechelen Gent Mouscron Waasland-Beveren Beerschot VA Cercle Brugge</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven,Antwerp Eupen Mechelen Genk Cercle Brugge Waasland-Beveren</t>
+  </si>
+  <si>
+    <t>St Truiden,Eupen Charleroi Mechelen Waasland-Beveren Genk Anderlecht</t>
+  </si>
+  <si>
+    <t>Standard,Anderlecht Mouscron Genk Gent Eupen Beerschot VA</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren,Cercle Brugge Beerschot VA Oostende St Truiden Kortrijk Oud-Heverlee Leuven</t>
+  </si>
+  <si>
+    <t>Waregem,Kortrijk Club Brugge Anderlecht Eupen Mechelen Gent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1423,7 +1487,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1441,19 +1505,292 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1514,7 +1851,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1546,7 +1883,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1915,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1610,7 +1947,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1642,7 +1979,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1674,7 +2011,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1706,7 +2043,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1738,7 +2075,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1770,7 +2107,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1802,7 +2139,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1834,7 +2171,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1866,7 +2203,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1898,7 +2235,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1930,7 +2267,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1962,7 +2299,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1994,7 +2331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2026,7 +2363,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2059,20 +2396,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DZ19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -2461,7 +2797,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2853,7 +3189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3245,7 +3581,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -3637,7 +3973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -4029,7 +4365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -4421,7 +4757,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -4813,7 +5149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -5205,7 +5541,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5597,7 +5933,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -5989,7 +6325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -6381,7 +6717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -6773,7 +7109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -7165,7 +7501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -7557,7 +7893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -7949,7 +8285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -8341,7 +8677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -8733,7 +9069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -9125,7 +9461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -9518,20 +9854,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DZ19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -9920,7 +10255,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -10312,7 +10647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -10704,7 +11039,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -11096,7 +11431,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -11488,7 +11823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -11880,7 +12215,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -12272,7 +12607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -12664,7 +12999,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13056,7 +13391,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -13448,7 +13783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -13840,7 +14175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -14232,7 +14567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -14624,7 +14959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -15016,7 +15351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -15408,7 +15743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -15800,7 +16135,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -16192,7 +16527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -16584,7 +16919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -16977,20 +17312,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DZ19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -17379,7 +17713,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -17771,7 +18105,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -18163,7 +18497,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -18555,7 +18889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -18947,7 +19281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -19339,7 +19673,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -19731,7 +20065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -20123,7 +20457,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -20515,7 +20849,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -20907,7 +21241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -21299,7 +21633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -21691,7 +22025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -22083,7 +22417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -22475,7 +22809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -22867,7 +23201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -23259,7 +23593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -23651,7 +23985,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -24043,7 +24377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -24436,20 +24770,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DZ19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -24838,7 +25171,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -25230,7 +25563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -25622,7 +25955,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -26014,7 +26347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -26406,7 +26739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -26798,7 +27131,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -27190,7 +27523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -27582,7 +27915,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -27974,7 +28307,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -28366,7 +28699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -28758,7 +29091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -29150,7 +29483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -29542,7 +29875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -29934,7 +30267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -30326,7 +30659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -30718,7 +31051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -31110,7 +31443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -31502,7 +31835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -31895,20 +32228,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>29</v>
       </c>
@@ -31979,7 +32311,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -32053,7 +32385,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -32127,7 +32459,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -32201,7 +32533,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -32275,7 +32607,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -32349,7 +32681,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -32423,7 +32755,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -32497,7 +32829,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -32571,7 +32903,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -32645,7 +32977,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -32719,7 +33051,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -32793,7 +33125,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -32867,7 +33199,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -32941,7 +33273,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -33015,7 +33347,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -33089,7 +33421,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -33163,7 +33495,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -33237,7 +33569,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -33312,20 +33644,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>264</v>
       </c>
@@ -33399,36 +33730,36 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>145.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>145</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
         <v>1.4705882352941178</v>
       </c>
-      <c r="H2" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2">
+        <v>26</v>
+      </c>
+      <c r="I2">
         <v>1.5294117647058822</v>
       </c>
-      <c r="J2" t="n">
-        <v>51.0</v>
+      <c r="J2">
+        <v>51</v>
       </c>
       <c r="K2" t="s">
         <v>287</v>
@@ -33439,32 +33770,32 @@
       <c r="M2" t="s">
         <v>321</v>
       </c>
-      <c r="N2" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="N2">
+        <v>34</v>
+      </c>
+      <c r="O2">
+        <v>47</v>
+      </c>
+      <c r="P2">
+        <v>63</v>
+      </c>
+      <c r="Q2">
+        <v>110</v>
+      </c>
+      <c r="R2">
+        <v>11</v>
+      </c>
+      <c r="S2">
         <v>0.6470588235294118</v>
       </c>
-      <c r="T2" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="T2">
+        <v>23</v>
+      </c>
+      <c r="U2">
         <v>1.3529411764705883</v>
       </c>
-      <c r="V2" t="n">
-        <v>34.0</v>
+      <c r="V2">
+        <v>34</v>
       </c>
       <c r="W2" t="s">
         <v>338</v>
@@ -33476,36 +33807,36 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>155.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="C3">
+        <v>83</v>
+      </c>
+      <c r="D3">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <v>155</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
         <v>1.7647058823529411</v>
       </c>
-      <c r="H3" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3">
+        <v>27</v>
+      </c>
+      <c r="I3">
         <v>1.588235294117647</v>
       </c>
-      <c r="J3" t="n">
-        <v>57.0</v>
+      <c r="J3">
+        <v>57</v>
       </c>
       <c r="K3" t="s">
         <v>288</v>
@@ -33516,32 +33847,32 @@
       <c r="M3" t="s">
         <v>322</v>
       </c>
-      <c r="N3" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>151.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="N3">
+        <v>34</v>
+      </c>
+      <c r="O3">
+        <v>69</v>
+      </c>
+      <c r="P3">
+        <v>82</v>
+      </c>
+      <c r="Q3">
+        <v>151</v>
+      </c>
+      <c r="R3">
+        <v>25</v>
+      </c>
+      <c r="S3">
         <v>1.4705882352941178</v>
       </c>
-      <c r="T3" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="T3">
+        <v>23</v>
+      </c>
+      <c r="U3">
         <v>1.3529411764705883</v>
       </c>
-      <c r="V3" t="n">
-        <v>48.0</v>
+      <c r="V3">
+        <v>48</v>
       </c>
       <c r="W3" t="s">
         <v>339</v>
@@ -33553,36 +33884,36 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>148.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="C4">
+        <v>79</v>
+      </c>
+      <c r="D4">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>148</v>
+      </c>
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4">
         <v>1.8823529411764706</v>
       </c>
-      <c r="H4" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4">
+        <v>26</v>
+      </c>
+      <c r="I4">
         <v>1.5294117647058822</v>
       </c>
-      <c r="J4" t="n">
-        <v>58.0</v>
+      <c r="J4">
+        <v>58</v>
       </c>
       <c r="K4" t="s">
         <v>289</v>
@@ -33593,32 +33924,32 @@
       <c r="M4" t="s">
         <v>323</v>
       </c>
-      <c r="N4" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>158.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="N4">
+        <v>34</v>
+      </c>
+      <c r="O4">
+        <v>74</v>
+      </c>
+      <c r="P4">
+        <v>84</v>
+      </c>
+      <c r="Q4">
+        <v>158</v>
+      </c>
+      <c r="R4">
+        <v>29</v>
+      </c>
+      <c r="S4">
         <v>1.7058823529411764</v>
       </c>
-      <c r="T4" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="T4">
+        <v>35</v>
+      </c>
+      <c r="U4">
         <v>2.0588235294117645</v>
       </c>
-      <c r="V4" t="n">
-        <v>64.0</v>
+      <c r="V4">
+        <v>64</v>
       </c>
       <c r="W4" t="s">
         <v>323</v>
@@ -33630,36 +33961,36 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>126.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <v>126</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
         <v>1.4705882352941178</v>
       </c>
-      <c r="H5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="J5" t="n">
-        <v>40.0</v>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
       </c>
       <c r="K5" t="s">
         <v>290</v>
@@ -33670,32 +34001,32 @@
       <c r="M5" t="s">
         <v>324</v>
       </c>
-      <c r="N5" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>145.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="N5">
+        <v>34</v>
+      </c>
+      <c r="O5">
+        <v>62</v>
+      </c>
+      <c r="P5">
+        <v>83</v>
+      </c>
+      <c r="Q5">
+        <v>145</v>
+      </c>
+      <c r="R5">
+        <v>26</v>
+      </c>
+      <c r="S5">
         <v>1.5294117647058822</v>
       </c>
-      <c r="T5" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="T5">
+        <v>25</v>
+      </c>
+      <c r="U5">
         <v>1.4705882352941178</v>
       </c>
-      <c r="V5" t="n">
-        <v>51.0</v>
+      <c r="V5">
+        <v>51</v>
       </c>
       <c r="W5" t="s">
         <v>340</v>
@@ -33707,36 +34038,36 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="C6">
+        <v>85</v>
+      </c>
+      <c r="D6">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <v>150</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
         <v>1.0588235294117647</v>
       </c>
-      <c r="H6" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6">
+        <v>28</v>
+      </c>
+      <c r="I6">
         <v>1.6470588235294117</v>
       </c>
-      <c r="J6" t="n">
-        <v>46.0</v>
+      <c r="J6">
+        <v>46</v>
       </c>
       <c r="K6" t="s">
         <v>291</v>
@@ -33747,32 +34078,32 @@
       <c r="M6" t="s">
         <v>325</v>
       </c>
-      <c r="N6" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-      <c r="T6" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="N6">
+        <v>34</v>
+      </c>
+      <c r="O6">
+        <v>58</v>
+      </c>
+      <c r="P6">
+        <v>75</v>
+      </c>
+      <c r="Q6">
+        <v>133</v>
+      </c>
+      <c r="R6">
+        <v>16</v>
+      </c>
+      <c r="S6">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="T6">
+        <v>33</v>
+      </c>
+      <c r="U6">
         <v>1.9411764705882353</v>
       </c>
-      <c r="V6" t="n">
-        <v>49.0</v>
+      <c r="V6">
+        <v>49</v>
       </c>
       <c r="W6" t="s">
         <v>296</v>
@@ -33784,36 +34115,36 @@
         <v>372</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="n">
-        <v>111.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>197.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="C7">
+        <v>111</v>
+      </c>
+      <c r="D7">
+        <v>86</v>
+      </c>
+      <c r="E7">
+        <v>197</v>
+      </c>
+      <c r="F7">
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>39</v>
+      </c>
+      <c r="I7">
         <v>2.2941176470588234</v>
       </c>
-      <c r="J7" t="n">
-        <v>73.0</v>
+      <c r="J7">
+        <v>73</v>
       </c>
       <c r="K7" t="s">
         <v>292</v>
@@ -33824,32 +34155,32 @@
       <c r="M7" t="s">
         <v>326</v>
       </c>
-      <c r="N7" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="T7" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="N7">
+        <v>34</v>
+      </c>
+      <c r="O7">
+        <v>50</v>
+      </c>
+      <c r="P7">
+        <v>54</v>
+      </c>
+      <c r="Q7">
+        <v>104</v>
+      </c>
+      <c r="R7">
+        <v>15</v>
+      </c>
+      <c r="S7">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="T7">
+        <v>11</v>
+      </c>
+      <c r="U7">
         <v>0.6470588235294118</v>
       </c>
-      <c r="V7" t="n">
-        <v>26.0</v>
+      <c r="V7">
+        <v>26</v>
       </c>
       <c r="W7" t="s">
         <v>341</v>
@@ -33861,36 +34192,36 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>157.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="C8">
+        <v>76</v>
+      </c>
+      <c r="D8">
+        <v>81</v>
+      </c>
+      <c r="E8">
+        <v>157</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8">
         <v>1.411764705882353</v>
       </c>
-      <c r="H8" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
         <v>1.1764705882352942</v>
       </c>
-      <c r="J8" t="n">
-        <v>44.0</v>
+      <c r="J8">
+        <v>44</v>
       </c>
       <c r="K8" t="s">
         <v>293</v>
@@ -33901,32 +34232,32 @@
       <c r="M8" t="s">
         <v>327</v>
       </c>
-      <c r="N8" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>164.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="N8">
+        <v>34</v>
+      </c>
+      <c r="O8">
+        <v>76</v>
+      </c>
+      <c r="P8">
+        <v>88</v>
+      </c>
+      <c r="Q8">
+        <v>164</v>
+      </c>
+      <c r="R8">
+        <v>30</v>
+      </c>
+      <c r="S8">
         <v>1.7647058823529411</v>
       </c>
-      <c r="T8" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="T8">
+        <v>25</v>
+      </c>
+      <c r="U8">
         <v>1.4705882352941178</v>
       </c>
-      <c r="V8" t="n">
-        <v>55.0</v>
+      <c r="V8">
+        <v>55</v>
       </c>
       <c r="W8" t="s">
         <v>342</v>
@@ -33938,36 +34269,36 @@
         <v>374</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>163.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.235294117647059</v>
-      </c>
-      <c r="H9" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="C9">
+        <v>92</v>
+      </c>
+      <c r="D9">
+        <v>71</v>
+      </c>
+      <c r="E9">
+        <v>163</v>
+      </c>
+      <c r="F9">
+        <v>38</v>
+      </c>
+      <c r="G9">
+        <v>2.2352941176470589</v>
+      </c>
+      <c r="H9">
+        <v>29</v>
+      </c>
+      <c r="I9">
         <v>1.7058823529411764</v>
       </c>
-      <c r="J9" t="n">
-        <v>67.0</v>
+      <c r="J9">
+        <v>67</v>
       </c>
       <c r="K9" t="s">
         <v>294</v>
@@ -33978,32 +34309,32 @@
       <c r="M9" t="s">
         <v>328</v>
       </c>
-      <c r="N9" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>162.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="N9">
+        <v>34</v>
+      </c>
+      <c r="O9">
+        <v>70</v>
+      </c>
+      <c r="P9">
+        <v>92</v>
+      </c>
+      <c r="Q9">
+        <v>162</v>
+      </c>
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
         <v>1.1764705882352942</v>
       </c>
-      <c r="T9" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="T9">
+        <v>28</v>
+      </c>
+      <c r="U9">
         <v>1.6470588235294117</v>
       </c>
-      <c r="V9" t="n">
-        <v>48.0</v>
+      <c r="V9">
+        <v>48</v>
       </c>
       <c r="W9" t="s">
         <v>343</v>
@@ -34015,36 +34346,36 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>185.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="C10">
+        <v>95</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>185</v>
+      </c>
+      <c r="F10">
+        <v>29</v>
+      </c>
+      <c r="G10">
         <v>1.7058823529411764</v>
       </c>
-      <c r="H10" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10">
+        <v>26</v>
+      </c>
+      <c r="I10">
         <v>1.5294117647058822</v>
       </c>
-      <c r="J10" t="n">
-        <v>55.0</v>
+      <c r="J10">
+        <v>55</v>
       </c>
       <c r="K10" t="s">
         <v>295</v>
@@ -34055,32 +34386,32 @@
       <c r="M10" t="s">
         <v>329</v>
       </c>
-      <c r="N10" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>136.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="N10">
+        <v>34</v>
+      </c>
+      <c r="O10">
+        <v>55</v>
+      </c>
+      <c r="P10">
+        <v>81</v>
+      </c>
+      <c r="Q10">
+        <v>136</v>
+      </c>
+      <c r="R10">
+        <v>21</v>
+      </c>
+      <c r="S10">
         <v>1.2352941176470589</v>
       </c>
-      <c r="T10" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="T10">
+        <v>21</v>
+      </c>
+      <c r="U10">
         <v>1.2352941176470589</v>
       </c>
-      <c r="V10" t="n">
-        <v>42.0</v>
+      <c r="V10">
+        <v>42</v>
       </c>
       <c r="W10" t="s">
         <v>344</v>
@@ -34092,36 +34423,36 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>163.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="C11">
+        <v>87</v>
+      </c>
+      <c r="D11">
+        <v>76</v>
+      </c>
+      <c r="E11">
+        <v>163</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
         <v>1.411764705882353</v>
       </c>
-      <c r="H11" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
         <v>1.1764705882352942</v>
       </c>
-      <c r="J11" t="n">
-        <v>44.0</v>
+      <c r="J11">
+        <v>44</v>
       </c>
       <c r="K11" t="s">
         <v>296</v>
@@ -34132,32 +34463,32 @@
       <c r="M11" t="s">
         <v>330</v>
       </c>
-      <c r="N11" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>163.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="N11">
+        <v>34</v>
+      </c>
+      <c r="O11">
+        <v>94</v>
+      </c>
+      <c r="P11">
+        <v>69</v>
+      </c>
+      <c r="Q11">
+        <v>163</v>
+      </c>
+      <c r="R11">
+        <v>35</v>
+      </c>
+      <c r="S11">
         <v>2.0588235294117645</v>
       </c>
-      <c r="T11" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="T11">
+        <v>22</v>
+      </c>
+      <c r="U11">
         <v>1.2941176470588236</v>
       </c>
-      <c r="V11" t="n">
-        <v>57.0</v>
+      <c r="V11">
+        <v>57</v>
       </c>
       <c r="W11" t="s">
         <v>345</v>
@@ -34169,36 +34500,36 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>178.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="C12">
+        <v>87</v>
+      </c>
+      <c r="D12">
+        <v>91</v>
+      </c>
+      <c r="E12">
+        <v>178</v>
+      </c>
+      <c r="F12">
+        <v>29</v>
+      </c>
+      <c r="G12">
         <v>1.7058823529411764</v>
       </c>
-      <c r="H12" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="I12">
         <v>1.4705882352941178</v>
       </c>
-      <c r="J12" t="n">
-        <v>54.0</v>
+      <c r="J12">
+        <v>54</v>
       </c>
       <c r="K12" t="s">
         <v>297</v>
@@ -34209,32 +34540,32 @@
       <c r="M12" t="s">
         <v>331</v>
       </c>
-      <c r="N12" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>139.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="N12">
+        <v>34</v>
+      </c>
+      <c r="O12">
+        <v>70</v>
+      </c>
+      <c r="P12">
+        <v>69</v>
+      </c>
+      <c r="Q12">
+        <v>139</v>
+      </c>
+      <c r="R12">
+        <v>30</v>
+      </c>
+      <c r="S12">
         <v>1.7647058823529411</v>
       </c>
-      <c r="T12" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="T12">
+        <v>24</v>
+      </c>
+      <c r="U12">
         <v>1.411764705882353</v>
       </c>
-      <c r="V12" t="n">
-        <v>54.0</v>
+      <c r="V12">
+        <v>54</v>
       </c>
       <c r="W12" t="s">
         <v>346</v>
@@ -34246,36 +34577,36 @@
         <v>378</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="J13" t="n">
-        <v>32.0</v>
+      <c r="C13">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <v>58</v>
+      </c>
+      <c r="E13">
+        <v>129</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="J13">
+        <v>32</v>
       </c>
       <c r="K13" t="s">
         <v>298</v>
@@ -34286,32 +34617,32 @@
       <c r="M13" t="s">
         <v>332</v>
       </c>
-      <c r="N13" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>173.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="S13" t="n">
+      <c r="N13">
+        <v>34</v>
+      </c>
+      <c r="O13">
+        <v>80</v>
+      </c>
+      <c r="P13">
+        <v>93</v>
+      </c>
+      <c r="Q13">
+        <v>173</v>
+      </c>
+      <c r="R13">
+        <v>22</v>
+      </c>
+      <c r="S13">
         <v>1.2941176470588236</v>
       </c>
-      <c r="T13" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="T13">
+        <v>32</v>
+      </c>
+      <c r="U13">
         <v>1.8823529411764706</v>
       </c>
-      <c r="V13" t="n">
-        <v>54.0</v>
+      <c r="V13">
+        <v>54</v>
       </c>
       <c r="W13" t="s">
         <v>347</v>
@@ -34323,36 +34654,36 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="C14">
+        <v>76</v>
+      </c>
+      <c r="D14">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>150</v>
+      </c>
+      <c r="F14">
+        <v>33</v>
+      </c>
+      <c r="G14">
         <v>1.9411764705882353</v>
       </c>
-      <c r="H14" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-      <c r="J14" t="n">
-        <v>49.0</v>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="J14">
+        <v>49</v>
       </c>
       <c r="K14" t="s">
         <v>299</v>
@@ -34363,32 +34694,32 @@
       <c r="M14" t="s">
         <v>333</v>
       </c>
-      <c r="N14" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>122.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="N14">
+        <v>34</v>
+      </c>
+      <c r="O14">
+        <v>63</v>
+      </c>
+      <c r="P14">
+        <v>59</v>
+      </c>
+      <c r="Q14">
+        <v>122</v>
+      </c>
+      <c r="R14">
+        <v>21</v>
+      </c>
+      <c r="S14">
         <v>1.2352941176470589</v>
       </c>
-      <c r="T14" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="T14">
+        <v>20</v>
+      </c>
+      <c r="U14">
         <v>1.1764705882352942</v>
       </c>
-      <c r="V14" t="n">
-        <v>41.0</v>
+      <c r="V14">
+        <v>41</v>
       </c>
       <c r="W14" t="s">
         <v>297</v>
@@ -34400,36 +34731,36 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>154.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="C15">
+        <v>72</v>
+      </c>
+      <c r="D15">
+        <v>82</v>
+      </c>
+      <c r="E15">
+        <v>154</v>
+      </c>
+      <c r="F15">
+        <v>24</v>
+      </c>
+      <c r="G15">
         <v>1.411764705882353</v>
       </c>
-      <c r="H15" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15">
         <v>1.7647058823529411</v>
       </c>
-      <c r="J15" t="n">
-        <v>54.0</v>
+      <c r="J15">
+        <v>54</v>
       </c>
       <c r="K15" t="s">
         <v>297</v>
@@ -34440,32 +34771,32 @@
       <c r="M15" t="s">
         <v>334</v>
       </c>
-      <c r="N15" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>217.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="N15">
+        <v>34</v>
+      </c>
+      <c r="O15">
+        <v>110</v>
+      </c>
+      <c r="P15">
+        <v>107</v>
+      </c>
+      <c r="Q15">
+        <v>217</v>
+      </c>
+      <c r="R15">
+        <v>23</v>
+      </c>
+      <c r="S15">
         <v>1.3529411764705883</v>
       </c>
-      <c r="T15" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="T15">
+        <v>36</v>
+      </c>
+      <c r="U15">
         <v>2.1176470588235294</v>
       </c>
-      <c r="V15" t="n">
-        <v>59.0</v>
+      <c r="V15">
+        <v>59</v>
       </c>
       <c r="W15" t="s">
         <v>348</v>
@@ -34477,36 +34808,36 @@
         <v>381</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>116.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="C16">
+        <v>58</v>
+      </c>
+      <c r="D16">
+        <v>58</v>
+      </c>
+      <c r="E16">
+        <v>116</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
         <v>1.1764705882352942</v>
       </c>
-      <c r="H16" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H16">
+        <v>21</v>
+      </c>
+      <c r="I16">
         <v>1.2352941176470589</v>
       </c>
-      <c r="J16" t="n">
-        <v>41.0</v>
+      <c r="J16">
+        <v>41</v>
       </c>
       <c r="K16" t="s">
         <v>300</v>
@@ -34517,32 +34848,32 @@
       <c r="M16" t="s">
         <v>335</v>
       </c>
-      <c r="N16" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>161.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="S16" t="n">
+      <c r="N16">
+        <v>34</v>
+      </c>
+      <c r="O16">
+        <v>71</v>
+      </c>
+      <c r="P16">
+        <v>90</v>
+      </c>
+      <c r="Q16">
+        <v>161</v>
+      </c>
+      <c r="R16">
+        <v>20</v>
+      </c>
+      <c r="S16">
         <v>1.1764705882352942</v>
       </c>
-      <c r="T16" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="T16">
+        <v>32</v>
+      </c>
+      <c r="U16">
         <v>1.8823529411764706</v>
       </c>
-      <c r="V16" t="n">
-        <v>52.0</v>
+      <c r="V16">
+        <v>52</v>
       </c>
       <c r="W16" t="s">
         <v>349</v>
@@ -34554,36 +34885,36 @@
         <v>382</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>169.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="C17">
+        <v>87</v>
+      </c>
+      <c r="D17">
+        <v>82</v>
+      </c>
+      <c r="E17">
+        <v>169</v>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17">
         <v>1.5294117647058822</v>
       </c>
-      <c r="H17" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17">
+        <v>26</v>
+      </c>
+      <c r="I17">
         <v>1.5294117647058822</v>
       </c>
-      <c r="J17" t="n">
-        <v>52.0</v>
+      <c r="J17">
+        <v>52</v>
       </c>
       <c r="K17" t="s">
         <v>301</v>
@@ -34594,32 +34925,32 @@
       <c r="M17" t="s">
         <v>336</v>
       </c>
-      <c r="N17" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>124.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="N17">
+        <v>34</v>
+      </c>
+      <c r="O17">
+        <v>69</v>
+      </c>
+      <c r="P17">
+        <v>55</v>
+      </c>
+      <c r="Q17">
+        <v>124</v>
+      </c>
+      <c r="R17">
+        <v>20</v>
+      </c>
+      <c r="S17">
         <v>1.1764705882352942</v>
       </c>
-      <c r="T17" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="T17">
+        <v>21</v>
+      </c>
+      <c r="U17">
         <v>1.2352941176470589</v>
       </c>
-      <c r="V17" t="n">
-        <v>41.0</v>
+      <c r="V17">
+        <v>41</v>
       </c>
       <c r="W17" t="s">
         <v>350</v>
@@ -34631,36 +34962,36 @@
         <v>383</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>143.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="C18">
+        <v>79</v>
+      </c>
+      <c r="D18">
+        <v>64</v>
+      </c>
+      <c r="E18">
+        <v>143</v>
+      </c>
+      <c r="F18">
+        <v>21</v>
+      </c>
+      <c r="G18">
         <v>1.2352941176470589</v>
       </c>
-      <c r="H18" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H18">
+        <v>23</v>
+      </c>
+      <c r="I18">
         <v>1.3529411764705883</v>
       </c>
-      <c r="J18" t="n">
-        <v>44.0</v>
+      <c r="J18">
+        <v>44</v>
       </c>
       <c r="K18" t="s">
         <v>302</v>
@@ -34671,32 +35002,32 @@
       <c r="M18" t="s">
         <v>336</v>
       </c>
-      <c r="N18" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="N18">
+        <v>34</v>
+      </c>
+      <c r="O18">
+        <v>101</v>
+      </c>
+      <c r="P18">
+        <v>99</v>
+      </c>
+      <c r="Q18">
+        <v>200</v>
+      </c>
+      <c r="R18">
+        <v>40</v>
+      </c>
+      <c r="S18">
         <v>2.3529411764705883</v>
       </c>
-      <c r="T18" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="T18">
+        <v>30</v>
+      </c>
+      <c r="U18">
         <v>1.7647058823529411</v>
       </c>
-      <c r="V18" t="n">
-        <v>70.0</v>
+      <c r="V18">
+        <v>70</v>
       </c>
       <c r="W18" t="s">
         <v>351</v>
@@ -34708,36 +35039,36 @@
         <v>384</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>141.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="C19">
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <v>77</v>
+      </c>
+      <c r="E19">
+        <v>141</v>
+      </c>
+      <c r="F19">
+        <v>23</v>
+      </c>
+      <c r="G19">
         <v>1.3529411764705883</v>
       </c>
-      <c r="H19" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19">
         <v>1.7647058823529411</v>
       </c>
-      <c r="J19" t="n">
-        <v>53.0</v>
+      <c r="J19">
+        <v>53</v>
       </c>
       <c r="K19" t="s">
         <v>303</v>
@@ -34748,32 +35079,32 @@
       <c r="M19" t="s">
         <v>337</v>
       </c>
-      <c r="N19" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>207.0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.235294117647059</v>
-      </c>
-      <c r="T19" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="N19">
+        <v>34</v>
+      </c>
+      <c r="O19">
+        <v>98</v>
+      </c>
+      <c r="P19">
+        <v>109</v>
+      </c>
+      <c r="Q19">
+        <v>207</v>
+      </c>
+      <c r="R19">
+        <v>38</v>
+      </c>
+      <c r="S19">
+        <v>2.2352941176470589</v>
+      </c>
+      <c r="T19">
+        <v>31</v>
+      </c>
+      <c r="U19">
         <v>1.8235294117647058</v>
       </c>
-      <c r="V19" t="n">
-        <v>69.0</v>
+      <c r="V19">
+        <v>69</v>
       </c>
       <c r="W19" t="s">
         <v>352</v>
@@ -34786,20 +35117,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>385</v>
       </c>
@@ -34813,7 +35143,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -34830,7 +35160,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -34847,7 +35177,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -34864,7 +35194,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -34881,7 +35211,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -34898,7 +35228,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -34915,7 +35245,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -34932,7 +35262,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -34949,7 +35279,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -34966,7 +35296,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -34983,7 +35313,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -35000,7 +35330,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -35017,7 +35347,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -35034,7 +35364,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -35051,7 +35381,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -35068,7 +35398,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -35085,7 +35415,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -35102,7 +35432,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -35120,6 +35450,405 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="95.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" t="s">
+        <v>446</v>
+      </c>
+      <c r="F5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D8" t="s">
+        <v>431</v>
+      </c>
+      <c r="E8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D10" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" t="s">
+        <v>451</v>
+      </c>
+      <c r="F10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D11" t="s">
+        <v>434</v>
+      </c>
+      <c r="E11" t="s">
+        <v>452</v>
+      </c>
+      <c r="F11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D12" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" t="s">
+        <v>453</v>
+      </c>
+      <c r="F12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>418</v>
+      </c>
+      <c r="D13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E13" t="s">
+        <v>454</v>
+      </c>
+      <c r="F13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" t="s">
+        <v>419</v>
+      </c>
+      <c r="D14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" t="s">
+        <v>455</v>
+      </c>
+      <c r="F14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" t="s">
+        <v>420</v>
+      </c>
+      <c r="D15" t="s">
+        <v>438</v>
+      </c>
+      <c r="E15" t="s">
+        <v>456</v>
+      </c>
+      <c r="F15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D16" t="s">
+        <v>439</v>
+      </c>
+      <c r="E16" t="s">
+        <v>457</v>
+      </c>
+      <c r="F16" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17" t="s">
+        <v>422</v>
+      </c>
+      <c r="D17" t="s">
+        <v>440</v>
+      </c>
+      <c r="E17" t="s">
+        <v>458</v>
+      </c>
+      <c r="F17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>405</v>
+      </c>
+      <c r="C18" t="s">
+        <v>423</v>
+      </c>
+      <c r="D18" t="s">
+        <v>441</v>
+      </c>
+      <c r="E18" t="s">
+        <v>459</v>
+      </c>
+      <c r="F18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C19" t="s">
+        <v>424</v>
+      </c>
+      <c r="D19" t="s">
+        <v>442</v>
+      </c>
+      <c r="E19" t="s">
+        <v>460</v>
+      </c>
+      <c r="F19" t="s">
+        <v>479</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Divisions/B1.xlsx
+++ b/Divisions/B1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\Divisions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\Divisions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="701" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,13 @@
     <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
     <sheet name="Shots Analysis" sheetId="7" r:id="rId7"/>
     <sheet name="L6" sheetId="8" r:id="rId8"/>
-    <sheet name="L6_2" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10895" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10783" uniqueCount="480">
   <si>
     <t>Team</t>
   </si>
@@ -1196,277 +1195,277 @@
     <t>Total Goals</t>
   </si>
   <si>
-    <t>Anderlecht,W D W W W W</t>
-  </si>
-  <si>
-    <t>Antwerp,L W W L W W</t>
-  </si>
-  <si>
-    <t>Beerschot VA,D W L W L L</t>
-  </si>
-  <si>
-    <t>Cercle Brugge,W L L W W D</t>
-  </si>
-  <si>
-    <t>Charleroi,D D D L L L</t>
-  </si>
-  <si>
-    <t>Club Brugge,D W L W L W</t>
-  </si>
-  <si>
-    <t>Eupen,W D W L L W</t>
-  </si>
-  <si>
-    <t>Genk,W W D W W L</t>
-  </si>
-  <si>
-    <t>Gent,W L W L W W</t>
-  </si>
-  <si>
-    <t>Kortrijk,L L L L W L</t>
-  </si>
-  <si>
-    <t>Mechelen,L D D L W W</t>
-  </si>
-  <si>
-    <t>Mouscron,D W L D L L</t>
-  </si>
-  <si>
-    <t>Oostende,W L W L W D</t>
-  </si>
-  <si>
-    <t>Oud-Heverlee Leuven,W D D L L L</t>
-  </si>
-  <si>
-    <t>St Truiden,L D W W L L</t>
-  </si>
-  <si>
-    <t>Standard,L L D W W W</t>
-  </si>
-  <si>
-    <t>Waasland-Beveren,L L W L L W</t>
-  </si>
-  <si>
-    <t>Waregem,W L L W L L</t>
-  </si>
-  <si>
-    <t>Anderlecht,3 1 4 4 2 1</t>
-  </si>
-  <si>
-    <t>Antwerp,0 4 2 1 3 3</t>
-  </si>
-  <si>
-    <t>Beerschot VA,2 2 1 2 1 0</t>
-  </si>
-  <si>
-    <t>Cercle Brugge,2 0 0 2 3 1</t>
-  </si>
-  <si>
-    <t>Charleroi,0 1 1 1 0 2</t>
-  </si>
-  <si>
-    <t>Club Brugge,1 4 0 2 1 4</t>
-  </si>
-  <si>
-    <t>Eupen,2 3 2 1 0 3</t>
-  </si>
-  <si>
-    <t>Genk,2 2 2 3 4 2</t>
-  </si>
-  <si>
-    <t>Gent,1 0 1 1 4 7</t>
-  </si>
-  <si>
-    <t>Kortrijk,1 2 0 1 4 1</t>
-  </si>
-  <si>
-    <t>Mechelen,0 1 2 1 4 4</t>
-  </si>
-  <si>
-    <t>Mouscron,2 1 0 1 2 2</t>
-  </si>
-  <si>
-    <t>Oostende,2 0 1 0 2 1</t>
-  </si>
-  <si>
-    <t>Oud-Heverlee Leuven,2 3 2 2 0 1</t>
-  </si>
-  <si>
-    <t>St Truiden,0 0 2 4 0 0</t>
-  </si>
-  <si>
-    <t>Standard,1 0 2 2 4 3</t>
-  </si>
-  <si>
-    <t>Waasland-Beveren,0 1 2 2 3 2</t>
-  </si>
-  <si>
-    <t>Waregem,2 0 1 2 2 2</t>
-  </si>
-  <si>
-    <t>Anderlecht,1 1 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Antwerp,2 2 0 4 2 2</t>
-  </si>
-  <si>
-    <t>Beerschot VA,2 1 2 1 2 3</t>
-  </si>
-  <si>
-    <t>Cercle Brugge,0 2 1 1 0 1</t>
-  </si>
-  <si>
-    <t>Charleroi,0 1 1 2 4 3</t>
-  </si>
-  <si>
-    <t>Club Brugge,1 0 2 1 2 2</t>
-  </si>
-  <si>
-    <t>Eupen,0 3 0 2 4 2</t>
-  </si>
-  <si>
-    <t>Genk,1 0 2 2 0 3</t>
-  </si>
-  <si>
-    <t>Gent,0 4 0 2 0 2</t>
-  </si>
-  <si>
-    <t>Kortrijk,2 4 2 2 3 4</t>
-  </si>
-  <si>
-    <t>Mechelen,2 1 2 2 2 1</t>
-  </si>
-  <si>
-    <t>Mouscron,2 0 1 1 3 4</t>
-  </si>
-  <si>
-    <t>Oostende,0 1 0 2 1 1</t>
-  </si>
-  <si>
-    <t>Oud-Heverlee Leuven,0 3 2 3 3 2</t>
-  </si>
-  <si>
-    <t>St Truiden,2 0 1 2 4 1</t>
-  </si>
-  <si>
-    <t>Standard,3 1 2 1 0 0</t>
-  </si>
-  <si>
-    <t>Waasland-Beveren,2 2 0 4 4 1</t>
-  </si>
-  <si>
-    <t>Waregem,1 3 4 1 4 7</t>
-  </si>
-  <si>
-    <t>Anderlecht,4 2 5 5 3 1</t>
-  </si>
-  <si>
-    <t>Antwerp,2 6 2 5 5 5</t>
-  </si>
-  <si>
-    <t>Beerschot VA,4 3 3 3 3 3</t>
-  </si>
-  <si>
-    <t>Cercle Brugge,2 2 1 3 3 2</t>
-  </si>
-  <si>
-    <t>Charleroi,0 2 2 3 4 5</t>
-  </si>
-  <si>
-    <t>Club Brugge,2 4 2 3 3 6</t>
-  </si>
-  <si>
-    <t>Eupen,2 6 2 3 4 5</t>
-  </si>
-  <si>
-    <t>Genk,3 2 4 5 4 5</t>
-  </si>
-  <si>
-    <t>Gent,1 4 1 3 4 9</t>
-  </si>
-  <si>
-    <t>Kortrijk,3 6 2 3 7 5</t>
-  </si>
-  <si>
-    <t>Mechelen,2 2 4 3 6 5</t>
-  </si>
-  <si>
-    <t>Mouscron,4 1 1 2 5 6</t>
-  </si>
-  <si>
-    <t>Oostende,2 1 1 2 3 2</t>
-  </si>
-  <si>
-    <t>Oud-Heverlee Leuven,2 6 4 5 3 3</t>
-  </si>
-  <si>
-    <t>St Truiden,2 0 3 6 4 1</t>
-  </si>
-  <si>
-    <t>Standard,4 1 4 3 4 3</t>
-  </si>
-  <si>
-    <t>Waasland-Beveren,2 3 2 6 7 3</t>
-  </si>
-  <si>
-    <t>Waregem,3 3 5 3 6 9</t>
-  </si>
-  <si>
     <t>Team against</t>
   </si>
   <si>
-    <t>Anderlecht,Standard Mechelen Waregem Antwerp Club Brugge St Truiden</t>
-  </si>
-  <si>
-    <t>Antwerp,Oud-Heverlee Leuven Kortrijk Club Brugge Anderlecht Mouscron Genk</t>
-  </si>
-  <si>
-    <t>Beerschot VA,Mouscron Waasland-Beveren Cercle Brugge Charleroi Oostende Standard</t>
-  </si>
-  <si>
-    <t>Cercle Brugge,Waasland-Beveren Genk Gent Beerschot VA Oud-Heverlee Leuven Oostende</t>
-  </si>
-  <si>
-    <t>Charleroi,St Truiden Club Brugge Mouscron Beerschot VA Gent Eupen</t>
-  </si>
-  <si>
-    <t>Club Brugge,Charleroi Gent Antwerp Kortrijk Anderlecht Mouscron</t>
-  </si>
-  <si>
-    <t>Eupen,St Truiden Oud-Heverlee Leuven Kortrijk Waregem Standard Charleroi</t>
-  </si>
-  <si>
-    <t>Genk,Charleroi Cercle Brugge Standard Oud-Heverlee Leuven St Truiden Antwerp</t>
-  </si>
-  <si>
-    <t>Gent,Oostende Club Brugge Cercle Brugge Standard Charleroi Waregem</t>
-  </si>
-  <si>
-    <t>Kortrijk,Waregem Antwerp Eupen Club Brugge Waasland-Beveren Mechelen</t>
-  </si>
-  <si>
-    <t>Mechelen,Oostende Anderlecht Oud-Heverlee Leuven St Truiden Waregem Kortrijk</t>
-  </si>
-  <si>
-    <t>Mouscron,Beerschot VA Standard Oostende Charleroi Antwerp Club Brugge</t>
-  </si>
-  <si>
-    <t>Oostende,Mechelen Gent Mouscron Waasland-Beveren Beerschot VA Cercle Brugge</t>
-  </si>
-  <si>
-    <t>Oud-Heverlee Leuven,Antwerp Eupen Mechelen Genk Cercle Brugge Waasland-Beveren</t>
-  </si>
-  <si>
-    <t>St Truiden,Eupen Charleroi Mechelen Waasland-Beveren Genk Anderlecht</t>
-  </si>
-  <si>
-    <t>Standard,Anderlecht Mouscron Genk Gent Eupen Beerschot VA</t>
-  </si>
-  <si>
-    <t>Waasland-Beveren,Cercle Brugge Beerschot VA Oostende St Truiden Kortrijk Oud-Heverlee Leuven</t>
-  </si>
-  <si>
-    <t>Waregem,Kortrijk Club Brugge Anderlecht Eupen Mechelen Gent</t>
+    <t>Anderlecht,D W D D W W D L D W W D L D D W W L W L L W D D D W D L W D W W W W</t>
+  </si>
+  <si>
+    <t>Antwerp,D L W L W D W W W W L D D W L L L W W L W W L W W W D D L W W L W W</t>
+  </si>
+  <si>
+    <t>Beerschot VA,W W W L W L W L W L W D W W L L L L D D L L W D W L L W D W L W L L</t>
+  </si>
+  <si>
+    <t>Cercle Brugge,L W W L L W L W W L L W L L L L L L L D L L W L L L D W W L L W W D</t>
+  </si>
+  <si>
+    <t>Charleroi,W W W W W W D L L W D L L L D W W W L L L L L D W D D L D D D L L L</t>
+  </si>
+  <si>
+    <t>Club Brugge,L W L W W W W W D L D W W D W W W L W W W W W W W W W W D W L W L W</t>
+  </si>
+  <si>
+    <t>Eupen,D L D D W D D L W L D D W D W L L L W D W W L L D D L D W D W L L W</t>
+  </si>
+  <si>
+    <t>Genk,W D D L L W D D W W W W W W W L W D W L L D L W D L L L W W D W W L</t>
+  </si>
+  <si>
+    <t>Gent,L L L W L W L W L L W D W L L W W W L D L D W D D D W D W L W L W W</t>
+  </si>
+  <si>
+    <t>Kortrijk,L W D W W L L D W L D D L W D L W L W W L L L D L W L W L L L L W L</t>
+  </si>
+  <si>
+    <t>Mechelen,D W L L L L W L L D D W L D D L L W W W W L W W D W W D L D D L W W</t>
+  </si>
+  <si>
+    <t>Mouscron,D L D L L L D L L L W D W L L W D W L L W D W D D L L L D W L D L L</t>
+  </si>
+  <si>
+    <t>Oostende,L L D D W W D W W L L D L L W W L W W D W L W D L W W D W L W L W D</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven,D D L W W L W W D W L D L W W W D L L W L W L D L D W L W D D L L L</t>
+  </si>
+  <si>
+    <t>St Truiden,W L D D L L L D L W L D D L L L W W W L W W L D W L L D L D W W L L</t>
+  </si>
+  <si>
+    <t>Standard,W W D W L W D W D L W D D D D L L L L W W W W D L D D L L L D W W W</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren,W L L L L L L D L D L W D W W W L L D L L D D L L L W D L L W L L W</t>
+  </si>
+  <si>
+    <t>Waregem,L L W W L L D L L L D W L W D W L W W W W L L L W D W W W L L W L L</t>
+  </si>
+  <si>
+    <t>Anderlecht,2 3 1 2 2 4 1 0 2 3 1 1 1 0 2 1 2 0 2 0 0 3 0 1 0 2 0 0 3 1 4 4 2 1</t>
+  </si>
+  <si>
+    <t>Antwerp,1 1 1 0 3 2 3 4 3 3 0 1 1 3 2 0 0 3 2 0 1 1 1 2 3 2 1 0 0 4 2 1 3 3</t>
+  </si>
+  <si>
+    <t>Beerschot VA,2 3 1 0 5 1 3 1 6 2 4 5 2 3 0 1 0 0 1 1 0 1 3 0 1 1 1 2 2 2 1 2 1 0</t>
+  </si>
+  <si>
+    <t>Cercle Brugge,0 2 3 0 0 3 1 2 5 0 1 2 1 1 1 0 3 0 1 1 0 0 2 1 0 0 0 2 2 0 0 2 3 1</t>
+  </si>
+  <si>
+    <t>Charleroi,1 1 3 2 2 3 1 1 1 3 3 0 1 0 0 2 4 1 1 2 0 0 2 1 3 1 1 1 0 1 1 1 0 2</t>
+  </si>
+  <si>
+    <t>Club Brugge,0 4 0 2 4 6 2 3 1 1 2 3 1 0 1 2 3 0 3 2 3 2 3 2 3 2 3 3 1 4 0 2 1 4</t>
+  </si>
+  <si>
+    <t>Eupen,1 0 0 1 2 2 1 1 2 0 1 2 3 1 1 0 2 1 2 1 2 3 0 0 1 2 0 1 2 3 2 1 0 3</t>
+  </si>
+  <si>
+    <t>Genk,2 1 0 1 2 3 2 1 2 2 4 2 4 5 4 0 2 1 4 1 0 1 2 3 0 1 1 1 2 2 2 3 4 2</t>
+  </si>
+  <si>
+    <t>Gent,1 1 0 1 1 1 2 5 2 1 4 1 1 0 1 2 3 1 0 1 0 1 3 1 0 2 4 1 1 0 1 1 4 7</t>
+  </si>
+  <si>
+    <t>Kortrijk,1 2 0 1 3 1 1 0 2 1 1 5 0 3 0 0 2 0 1 2 1 0 1 0 1 3 1 2 1 2 0 1 4 1</t>
+  </si>
+  <si>
+    <t>Mechelen,2 1 2 0 0 1 2 1 1 2 3 2 2 1 2 2 0 2 2 3 1 0 3 3 0 1 2 1 0 1 2 1 4 4</t>
+  </si>
+  <si>
+    <t>Mouscron,1 0 1 0 0 0 1 0 0 1 2 0 3 0 0 3 2 1 1 0 2 1 2 1 1 0 0 1 2 1 0 1 2 2</t>
+  </si>
+  <si>
+    <t>Oostende,1 0 0 2 1 3 2 3 3 0 1 1 0 1 2 1 1 2 3 1 2 1 2 2 1 3 3 1 2 0 1 0 2 1</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven,1 1 1 3 1 1 3 2 2 2 2 2 2 2 2 3 2 1 1 1 1 3 0 1 0 1 3 0 2 3 2 2 0 1</t>
+  </si>
+  <si>
+    <t>St Truiden,2 1 0 1 2 0 0 0 3 2 1 2 1 2 0 1 2 2 1 1 3 2 0 1 3 1 1 0 0 0 2 4 0 0</t>
+  </si>
+  <si>
+    <t>Standard,1 2 0 3 0 2 2 2 1 0 1 1 2 0 2 1 1 0 1 3 1 4 3 2 1 1 1 2 1 0 2 2 4 3</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren,3 1 1 1 1 2 2 1 1 1 0 2 1 2 2 3 0 0 1 1 1 1 0 2 2 0 1 1 0 1 2 2 3 2</t>
+  </si>
+  <si>
+    <t>Waregem,1 1 4 1 0 0 2 1 1 0 1 3 1 3 2 1 0 1 3 1 5 2 0 2 2 1 2 3 2 0 1 2 2 2</t>
+  </si>
+  <si>
+    <t>Anderlecht,2 1 1 2 0 2 1 3 2 1 0 1 2 0 2 0 1 1 0 1 2 0 0 1 0 1 0 2 1 1 1 1 1 0</t>
+  </si>
+  <si>
+    <t>Antwerp,1 2 0 2 2 2 1 1 1 2 1 1 1 2 4 2 1 0 1 3 0 0 2 0 2 1 1 0 2 2 0 4 2 2</t>
+  </si>
+  <si>
+    <t>Beerschot VA,1 1 0 3 2 3 2 5 3 3 2 5 1 2 1 3 2 1 1 1 3 3 0 0 0 2 2 1 2 1 2 1 2 3</t>
+  </si>
+  <si>
+    <t>Cercle Brugge,1 1 2 1 2 0 2 1 2 3 3 0 2 5 2 1 4 1 2 1 1 1 1 2 3 1 0 1 0 2 1 1 0 1</t>
+  </si>
+  <si>
+    <t>Charleroi,0 0 1 0 0 1 1 2 2 0 3 1 3 2 0 1 3 0 2 3 1 3 3 1 1 1 1 2 0 1 1 2 4 3</t>
+  </si>
+  <si>
+    <t>Club Brugge,1 0 1 1 1 0 1 0 1 2 2 1 0 0 0 0 0 1 0 1 0 1 2 1 1 0 0 0 1 0 2 1 2 2</t>
+  </si>
+  <si>
+    <t>Eupen,1 4 0 1 1 2 1 2 0 4 1 2 1 1 0 3 3 4 1 1 0 1 3 2 1 2 1 1 0 3 0 2 4 2</t>
+  </si>
+  <si>
+    <t>Genk,1 1 0 2 5 1 2 1 1 1 0 1 1 1 2 1 0 1 1 2 2 1 3 2 0 2 3 2 1 0 2 2 0 3</t>
+  </si>
+  <si>
+    <t>Gent,2 2 1 0 2 0 3 1 5 2 1 1 0 3 2 1 0 0 1 1 1 1 0 1 0 2 0 1 0 4 0 2 0 2</t>
+  </si>
+  <si>
+    <t>Kortrijk,3 1 0 0 0 2 3 0 1 3 1 5 1 1 0 3 1 2 0 1 2 2 2 0 3 0 3 0 2 4 2 2 3 4</t>
+  </si>
+  <si>
+    <t>Mechelen,2 0 3 1 1 3 0 4 2 2 3 1 3 1 2 3 3 1 1 0 0 4 0 2 0 0 1 1 2 1 2 2 2 1</t>
+  </si>
+  <si>
+    <t>Mouscron,1 1 1 1 3 1 1 3 2 4 1 0 2 2 2 1 2 0 2 1 0 1 0 1 1 3 4 2 2 0 1 1 3 4</t>
+  </si>
+  <si>
+    <t>Oostende,2 1 0 2 0 1 2 0 0 1 3 1 2 3 1 0 2 1 2 1 1 2 1 2 2 1 1 1 0 1 0 2 1 1</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven,1 1 3 1 0 3 2 1 2 1 4 2 3 1 0 0 2 2 2 0 3 2 3 1 1 1 1 3 0 3 2 3 3 2</t>
+  </si>
+  <si>
+    <t>St Truiden,1 3 0 1 3 3 2 0 6 0 2 2 1 3 1 2 0 1 0 2 1 0 2 1 0 3 2 0 2 0 1 2 4 1</t>
+  </si>
+  <si>
+    <t>Standard,0 1 0 0 1 1 2 1 1 2 0 1 2 0 2 2 2 1 2 1 0 0 2 2 3 1 1 3 3 1 2 1 0 0</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren,1 2 4 3 4 4 3 1 4 1 2 0 1 0 0 2 3 3 1 3 5 1 0 3 3 2 0 1 2 2 0 4 4 1</t>
+  </si>
+  <si>
+    <t>Waregem,2 3 1 0 2 6 2 2 3 3 1 1 2 0 2 0 2 0 2 0 1 3 3 3 1 1 1 2 1 3 4 1 4 7</t>
+  </si>
+  <si>
+    <t>Anderlecht,4 4 2 4 2 6 2 3 4 4 1 2 3 0 4 1 3 1 2 1 2 3 0 2 0 3 0 2 4 2 5 5 3 1</t>
+  </si>
+  <si>
+    <t>Antwerp,2 3 1 2 5 4 4 5 4 5 1 2 2 5 6 2 1 3 3 3 1 1 3 2 5 3 2 0 2 6 2 5 5 5</t>
+  </si>
+  <si>
+    <t>Beerschot VA,3 4 1 3 7 4 5 6 9 5 6 10 3 5 1 4 2 1 2 2 3 4 3 0 1 3 3 3 4 3 3 3 3 3</t>
+  </si>
+  <si>
+    <t>Cercle Brugge,1 3 5 1 2 3 3 3 7 3 4 2 3 6 3 1 7 1 3 2 1 1 3 3 3 1 0 3 2 2 1 3 3 2</t>
+  </si>
+  <si>
+    <t>Charleroi,1 1 4 2 2 4 2 3 3 3 6 1 4 2 0 3 7 1 3 5 1 3 5 2 4 2 2 3 0 2 2 3 4 5</t>
+  </si>
+  <si>
+    <t>Club Brugge,1 4 1 3 5 6 3 3 2 3 4 4 1 0 1 2 3 1 3 3 3 3 5 3 4 2 3 3 2 4 2 3 3 6</t>
+  </si>
+  <si>
+    <t>Eupen,2 4 0 2 3 4 2 3 2 4 2 4 4 2 1 3 5 5 3 2 2 4 3 2 2 4 1 2 2 6 2 3 4 5</t>
+  </si>
+  <si>
+    <t>Genk,3 2 0 3 7 4 4 2 3 3 4 3 5 6 6 1 2 2 5 3 2 2 5 5 0 3 4 3 3 2 4 5 4 5</t>
+  </si>
+  <si>
+    <t>Gent,3 3 1 1 3 1 5 6 7 3 5 2 1 3 3 3 3 1 1 2 1 2 3 2 0 4 4 2 1 4 1 3 4 9</t>
+  </si>
+  <si>
+    <t>Kortrijk,4 3 0 1 3 3 4 0 3 4 2 10 1 4 0 3 3 2 1 3 3 2 3 0 4 3 4 2 3 6 2 3 7 5</t>
+  </si>
+  <si>
+    <t>Mechelen,4 1 5 1 1 4 2 5 3 4 6 3 5 2 4 5 3 3 3 3 1 4 3 5 0 1 3 2 2 2 4 3 6 5</t>
+  </si>
+  <si>
+    <t>Mouscron,2 1 2 1 3 1 2 3 2 5 3 0 5 2 2 4 4 1 3 1 2 2 2 2 2 3 4 3 4 1 1 2 5 6</t>
+  </si>
+  <si>
+    <t>Oostende,3 1 0 4 1 4 4 3 3 1 4 2 2 4 3 1 3 3 5 2 3 3 3 4 3 4 4 2 2 1 1 2 3 2</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven,2 2 4 4 1 4 5 3 4 3 6 4 5 3 2 3 4 3 3 1 4 5 3 2 1 2 4 3 2 6 4 5 3 3</t>
+  </si>
+  <si>
+    <t>St Truiden,3 4 0 2 5 3 2 0 9 2 3 4 2 5 1 3 2 3 1 3 4 2 2 2 3 4 3 0 2 0 3 6 4 1</t>
+  </si>
+  <si>
+    <t>Standard,1 3 0 3 1 3 4 3 2 2 1 2 4 0 4 3 3 1 3 4 1 4 5 4 4 2 2 5 4 1 4 3 4 3</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren,4 3 5 4 5 6 5 2 5 2 2 2 2 2 2 5 3 3 2 4 6 2 0 5 5 2 1 2 2 3 2 6 7 3</t>
+  </si>
+  <si>
+    <t>Waregem,3 4 5 1 2 6 4 3 4 3 2 4 3 3 4 1 2 1 5 1 6 5 3 5 3 2 3 5 3 3 5 3 6 9</t>
+  </si>
+  <si>
+    <t>Anderlecht,Mechelen St Truiden Mouscron Oostende Cercle Brugge Waasland-Beveren Eupen Club Brugge Oud-Heverlee Leuven Kortrijk Antwerp Gent Beerschot VA Standard Waregem Genk Oostende Charleroi Beerschot VA Oud-Heverlee Leuven Eupen Charleroi Waasland-Beveren Mouscron Gent Genk Cercle Brugge Kortrijk Standard Mechelen Waregem Antwerp Club Brugge St Truiden</t>
+  </si>
+  <si>
+    <t>Antwerp,Mouscron Cercle Brugge Gent Charleroi St Truiden Eupen Kortrijk Mechelen Waregem Beerschot VA Anderlecht Standard Oostende Oud-Heverlee Leuven Genk Club Brugge Waregem Waasland-Beveren Charleroi Mechelen Gent Cercle Brugge Oostende Eupen Waasland-Beveren Beerschot VA Standard St Truiden Oud-Heverlee Leuven Kortrijk Club Brugge Anderlecht Mouscron Genk</t>
+  </si>
+  <si>
+    <t>Beerschot VA,Oostende Waregem Club Brugge Standard Genk Charleroi Waasland-Beveren Gent St Truiden Antwerp Oud-Heverlee Leuven Kortrijk Anderlecht Mechelen Eupen Mouscron Anderlecht St Truiden Gent Cercle Brugge Club Brugge Eupen Waregem Kortrijk Oud-Heverlee Leuven Antwerp Mechelen Genk Mouscron Waasland-Beveren Cercle Brugge Charleroi Oostende Standard</t>
+  </si>
+  <si>
+    <t>Cercle Brugge,Standard Antwerp Mechelen Kortrijk Anderlecht St Truiden Club Brugge Eupen Gent Charleroi Waregem Waasland-Beveren Mouscron Genk Oud-Heverlee Leuven Oostende Charleroi Waregem Eupen Beerschot VA Standard Antwerp Kortrijk Club Brugge St Truiden Mechelen Anderlecht Mouscron Waasland-Beveren Genk Gent Beerschot VA Oud-Heverlee Leuven Oostende</t>
+  </si>
+  <si>
+    <t>Charleroi,Club Brugge Oostende Oud-Heverlee Leuven Antwerp Waregem Beerschot VA Mouscron Standard Genk Cercle Brugge Mechelen Gent Eupen Waasland-Beveren Kortrijk St Truiden Cercle Brugge Anderlecht Antwerp Oostende Mechelen Anderlecht Standard Oud-Heverlee Leuven Kortrijk Waregem Waasland-Beveren Genk St Truiden Club Brugge Mouscron Beerschot VA Gent Eupen</t>
+  </si>
+  <si>
+    <t>Club Brugge,Charleroi Eupen Beerschot VA Genk Waasland-Beveren Waregem Cercle Brugge Anderlecht Standard Oud-Heverlee Leuven Mechelen Oostende Kortrijk Mouscron St Truiden Antwerp Mechelen Gent Eupen St Truiden Beerschot VA Oostende Genk Cercle Brugge Standard Waasland-Beveren Oud-Heverlee Leuven Waregem Charleroi Gent Antwerp Kortrijk Anderlecht Mouscron</t>
+  </si>
+  <si>
+    <t>Eupen,Oud-Heverlee Leuven Club Brugge Kortrijk St Truiden Gent Antwerp Anderlecht Cercle Brugge Mouscron Genk Waasland-Beveren Standard Charleroi Mechelen Beerschot VA Club Brugge Waregem Genk Cercle Brugge Oostende Anderlecht Beerschot VA Mechelen Antwerp Mouscron Gent Waasland-Beveren Oostende St Truiden Oud-Heverlee Leuven Kortrijk Waregem Standard Charleroi</t>
+  </si>
+  <si>
+    <t>Genk,Waregem Oud-Heverlee Leuven Standard Club Brugge Beerschot VA Mechelen Oostende Waasland-Beveren Charleroi Gent Eupen St Truiden Mouscron Cercle Brugge Antwerp Anderlecht Kortrijk Waasland-Beveren Eupen Kortrijk Mouscron Gent Club Brugge Waregem Mechelen Anderlecht Oostende Beerschot VA Charleroi Cercle Brugge Standard Oud-Heverlee Leuven St Truiden Antwerp</t>
+  </si>
+  <si>
+    <t>Gent,St Truiden Kortrijk Antwerp Mechelen Eupen Mouscron Oud-Heverlee Leuven Beerschot VA Cercle Brugge Genk Waasland-Beveren Anderlecht Charleroi Waregem Oostende Standard Waasland-Beveren Club Brugge Kortrijk Beerschot VA Antwerp Genk Oud-Heverlee Leuven St Truiden Anderlecht Eupen Mouscron Mechelen Oostende Club Brugge Cercle Brugge Standard Charleroi Waregem</t>
+  </si>
+  <si>
+    <t>Kortrijk,Waasland-Beveren Gent Eupen Cercle Brugge Mouscron Standard Antwerp St Truiden Mechelen Anderlecht Waregem Beerschot VA Club Brugge Oostende Charleroi Oud-Heverlee Leuven Standard Genk Gent Genk Oostende St Truiden Cercle Brugge Beerschot VA Charleroi Mouscron Oud-Heverlee Leuven Anderlecht Waregem Antwerp Eupen Club Brugge Waasland-Beveren Mechelen</t>
+  </si>
+  <si>
+    <t>Mechelen,Anderlecht Mouscron Cercle Brugge Gent Oostende Genk St Truiden Antwerp Kortrijk Club Brugge Charleroi Waregem Beerschot VA Eupen Standard Waasland-Beveren Club Brugge Oud-Heverlee Leuven Mouscron Antwerp Charleroi Standard Eupen Waasland-Beveren Genk Cercle Brugge Beerschot VA Gent Oostende Anderlecht Oud-Heverlee Leuven St Truiden Waregem Kortrijk</t>
+  </si>
+  <si>
+    <t>Mouscron,Antwerp Mechelen Anderlecht Waregem Kortrijk Gent Charleroi Oostende Eupen Genk Cercle Brugge Club Brugge St Truiden Waasland-Beveren Oud-Heverlee Leuven Beerschot VA Oud-Heverlee Leuven Standard Mechelen Waregem Genk Waasland-Beveren St Truiden Anderlecht Eupen Kortrijk Gent Cercle Brugge Beerschot VA Standard Oostende Charleroi Antwerp Club Brugge</t>
+  </si>
+  <si>
+    <t>Oostende,Beerschot VA Charleroi St Truiden Anderlecht Mechelen Oud-Heverlee Leuven Genk Mouscron Waregem Standard Club Brugge Antwerp Waasland-Beveren Kortrijk Gent Cercle Brugge Anderlecht Oud-Heverlee Leuven Charleroi Eupen Kortrijk Club Brugge Antwerp Standard Waregem St Truiden Genk Eupen Mechelen Gent Mouscron Waasland-Beveren Beerschot VA Cercle Brugge</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven,Eupen Genk Charleroi Waasland-Beveren Standard Oostende Gent Waregem Anderlecht Club Brugge Beerschot VA St Truiden Antwerp Cercle Brugge Mouscron Kortrijk Mouscron Mechelen Oostende Anderlecht St Truiden Waregem Gent Charleroi Beerschot VA Standard Kortrijk Club Brugge Antwerp Eupen Mechelen Genk Cercle Brugge Waasland-Beveren</t>
+  </si>
+  <si>
+    <t>St Truiden,Gent Anderlecht Oostende Eupen Antwerp Cercle Brugge Mechelen Kortrijk Beerschot VA Standard Genk Oud-Heverlee Leuven Waasland-Beveren Mouscron Club Brugge Charleroi Waregem Standard Beerschot VA Club Brugge Oud-Heverlee Leuven Kortrijk Mouscron Gent Cercle Brugge Oostende Waregem Antwerp Eupen Charleroi Mechelen Waasland-Beveren Genk Anderlecht</t>
+  </si>
+  <si>
+    <t>Standard,Cercle Brugge Waasland-Beveren Genk Beerschot VA Oud-Heverlee Leuven Kortrijk Waregem Charleroi Club Brugge St Truiden Oostende Antwerp Eupen Anderlecht Mechelen Gent Kortrijk Mouscron St Truiden Waasland-Beveren Cercle Brugge Mechelen Charleroi Oostende Club Brugge Oud-Heverlee Leuven Antwerp Waregem Anderlecht Mouscron Genk Gent Eupen Beerschot VA</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren,Kortrijk Standard Waregem Oud-Heverlee Leuven Club Brugge Anderlecht Beerschot VA Genk Gent Eupen Cercle Brugge Oostende St Truiden Charleroi Mouscron Mechelen Gent Antwerp Genk Standard Waregem Mouscron Anderlecht Mechelen Antwerp Club Brugge Eupen Charleroi Cercle Brugge Beerschot VA Oostende St Truiden Kortrijk Oud-Heverlee Leuven</t>
+  </si>
+  <si>
+    <t>Waregem,Genk Beerschot VA Waasland-Beveren Mouscron Charleroi Club Brugge Standard Oud-Heverlee Leuven Antwerp Oostende Kortrijk Cercle Brugge Mechelen Gent Anderlecht Antwerp St Truiden Cercle Brugge Eupen Mouscron Waasland-Beveren Oud-Heverlee Leuven Beerschot VA Genk Oostende Charleroi St Truiden Standard Kortrijk Club Brugge Anderlecht Eupen Mechelen Gent</t>
   </si>
 </sst>
 </file>
@@ -1502,8 +1501,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -32236,9 +32236,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="23" max="23" width="15.42578125" customWidth="1"/>
+    <col min="24" max="24" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -35123,352 +35129,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C4" t="s">
-        <v>409</v>
-      </c>
-      <c r="D4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C5" t="s">
-        <v>410</v>
-      </c>
-      <c r="D5" t="s">
-        <v>428</v>
-      </c>
-      <c r="E5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C6" t="s">
-        <v>411</v>
-      </c>
-      <c r="D6" t="s">
-        <v>429</v>
-      </c>
-      <c r="E6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C7" t="s">
-        <v>412</v>
-      </c>
-      <c r="D7" t="s">
-        <v>430</v>
-      </c>
-      <c r="E7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" t="s">
-        <v>413</v>
-      </c>
-      <c r="D8" t="s">
-        <v>431</v>
-      </c>
-      <c r="E8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C9" t="s">
-        <v>414</v>
-      </c>
-      <c r="D9" t="s">
-        <v>432</v>
-      </c>
-      <c r="E9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C10" t="s">
-        <v>415</v>
-      </c>
-      <c r="D10" t="s">
-        <v>433</v>
-      </c>
-      <c r="E10" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D11" t="s">
-        <v>434</v>
-      </c>
-      <c r="E11" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>399</v>
-      </c>
-      <c r="C12" t="s">
-        <v>417</v>
-      </c>
-      <c r="D12" t="s">
-        <v>435</v>
-      </c>
-      <c r="E12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>400</v>
-      </c>
-      <c r="C13" t="s">
-        <v>418</v>
-      </c>
-      <c r="D13" t="s">
-        <v>436</v>
-      </c>
-      <c r="E13" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>401</v>
-      </c>
-      <c r="C14" t="s">
-        <v>419</v>
-      </c>
-      <c r="D14" t="s">
-        <v>437</v>
-      </c>
-      <c r="E14" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C15" t="s">
-        <v>420</v>
-      </c>
-      <c r="D15" t="s">
-        <v>438</v>
-      </c>
-      <c r="E15" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>403</v>
-      </c>
-      <c r="C16" t="s">
-        <v>421</v>
-      </c>
-      <c r="D16" t="s">
-        <v>439</v>
-      </c>
-      <c r="E16" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>404</v>
-      </c>
-      <c r="C17" t="s">
-        <v>422</v>
-      </c>
-      <c r="D17" t="s">
-        <v>440</v>
-      </c>
-      <c r="E17" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>405</v>
-      </c>
-      <c r="C18" t="s">
-        <v>423</v>
-      </c>
-      <c r="D18" t="s">
-        <v>441</v>
-      </c>
-      <c r="E18" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>406</v>
-      </c>
-      <c r="C19" t="s">
-        <v>424</v>
-      </c>
-      <c r="D19" t="s">
-        <v>442</v>
-      </c>
-      <c r="E19" t="s">
-        <v>460</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="95.42578125" customWidth="1"/>
+    <col min="2" max="2" width="89.42578125" customWidth="1"/>
+    <col min="3" max="3" width="72.7109375" customWidth="1"/>
+    <col min="4" max="4" width="74.140625" customWidth="1"/>
+    <col min="5" max="5" width="83" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -35485,364 +35157,364 @@
         <v>388</v>
       </c>
       <c r="F1" t="s">
-        <v>461</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F2" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F3" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
+      <c r="A4" s="1">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F4" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
+      <c r="A5" s="1">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F5" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
+      <c r="A6" s="1">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F6" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
+      <c r="A7" s="1">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F7" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
+      <c r="A8" s="1">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F8" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
+      <c r="A9" s="1">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F9" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
+      <c r="A10" s="1">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F10" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
+      <c r="A11" s="1">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F11" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
+      <c r="A12" s="1">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D12" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F12" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
+      <c r="A13" s="1">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F13" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
+      <c r="A14" s="1">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F14" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
+      <c r="A15" s="1">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C15" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D15" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F15" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
+      <c r="A16" s="1">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C16" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D16" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E16" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F16" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
+      <c r="A17" s="1">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C17" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D17" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F17" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
+      <c r="A18" s="1">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C18" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E18" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F18" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
+      <c r="A19" s="1">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C19" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E19" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F19" t="s">
         <v>479</v>

--- a/Divisions/B1.xlsx
+++ b/Divisions/B1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\Divisions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\Divisions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="731" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="Shots Analysis" sheetId="7" r:id="rId7"/>
     <sheet name="L6" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10783" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10801" uniqueCount="480">
   <si>
     <t>Team</t>
   </si>
@@ -1198,274 +1198,274 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Anderlecht,D W D D W W D L D W W D L D D W W L W L L W D D D W D L W D W W W W</t>
-  </si>
-  <si>
-    <t>Antwerp,D L W L W D W W W W L D D W L L L W W L W W L W W W D D L W W L W W</t>
-  </si>
-  <si>
-    <t>Beerschot VA,W W W L W L W L W L W D W W L L L L D D L L W D W L L W D W L W L L</t>
-  </si>
-  <si>
-    <t>Cercle Brugge,L W W L L W L W W L L W L L L L L L L D L L W L L L D W W L L W W D</t>
-  </si>
-  <si>
-    <t>Charleroi,W W W W W W D L L W D L L L D W W W L L L L L D W D D L D D D L L L</t>
-  </si>
-  <si>
-    <t>Club Brugge,L W L W W W W W D L D W W D W W W L W W W W W W W W W W D W L W L W</t>
-  </si>
-  <si>
-    <t>Eupen,D L D D W D D L W L D D W D W L L L W D W W L L D D L D W D W L L W</t>
-  </si>
-  <si>
-    <t>Genk,W D D L L W D D W W W W W W W L W D W L L D L W D L L L W W D W W L</t>
-  </si>
-  <si>
-    <t>Gent,L L L W L W L W L L W D W L L W W W L D L D W D D D W D W L W L W W</t>
-  </si>
-  <si>
-    <t>Kortrijk,L W D W W L L D W L D D L W D L W L W W L L L D L W L W L L L L W L</t>
-  </si>
-  <si>
-    <t>Mechelen,D W L L L L W L L D D W L D D L L W W W W L W W D W W D L D D L W W</t>
-  </si>
-  <si>
-    <t>Mouscron,D L D L L L D L L L W D W L L W D W L L W D W D D L L L D W L D L L</t>
-  </si>
-  <si>
-    <t>Oostende,L L D D W W D W W L L D L L W W L W W D W L W D L W W D W L W L W D</t>
-  </si>
-  <si>
-    <t>Oud-Heverlee Leuven,D D L W W L W W D W L D L W W W D L L W L W L D L D W L W D D L L L</t>
-  </si>
-  <si>
-    <t>St Truiden,W L D D L L L D L W L D D L L L W W W L W W L D W L L D L D W W L L</t>
-  </si>
-  <si>
-    <t>Standard,W W D W L W D W D L W D D D D L L L L W W W W D L D D L L L D W W W</t>
-  </si>
-  <si>
-    <t>Waasland-Beveren,W L L L L L L D L D L W D W W W L L D L L D D L L L W D L L W L L W</t>
-  </si>
-  <si>
-    <t>Waregem,L L W W L L D L L L D W L W D W L W W W W L L L W D W W W L L W L L</t>
-  </si>
-  <si>
-    <t>Anderlecht,2 3 1 2 2 4 1 0 2 3 1 1 1 0 2 1 2 0 2 0 0 3 0 1 0 2 0 0 3 1 4 4 2 1</t>
-  </si>
-  <si>
-    <t>Antwerp,1 1 1 0 3 2 3 4 3 3 0 1 1 3 2 0 0 3 2 0 1 1 1 2 3 2 1 0 0 4 2 1 3 3</t>
-  </si>
-  <si>
-    <t>Beerschot VA,2 3 1 0 5 1 3 1 6 2 4 5 2 3 0 1 0 0 1 1 0 1 3 0 1 1 1 2 2 2 1 2 1 0</t>
-  </si>
-  <si>
-    <t>Cercle Brugge,0 2 3 0 0 3 1 2 5 0 1 2 1 1 1 0 3 0 1 1 0 0 2 1 0 0 0 2 2 0 0 2 3 1</t>
-  </si>
-  <si>
-    <t>Charleroi,1 1 3 2 2 3 1 1 1 3 3 0 1 0 0 2 4 1 1 2 0 0 2 1 3 1 1 1 0 1 1 1 0 2</t>
-  </si>
-  <si>
-    <t>Club Brugge,0 4 0 2 4 6 2 3 1 1 2 3 1 0 1 2 3 0 3 2 3 2 3 2 3 2 3 3 1 4 0 2 1 4</t>
-  </si>
-  <si>
-    <t>Eupen,1 0 0 1 2 2 1 1 2 0 1 2 3 1 1 0 2 1 2 1 2 3 0 0 1 2 0 1 2 3 2 1 0 3</t>
-  </si>
-  <si>
-    <t>Genk,2 1 0 1 2 3 2 1 2 2 4 2 4 5 4 0 2 1 4 1 0 1 2 3 0 1 1 1 2 2 2 3 4 2</t>
-  </si>
-  <si>
-    <t>Gent,1 1 0 1 1 1 2 5 2 1 4 1 1 0 1 2 3 1 0 1 0 1 3 1 0 2 4 1 1 0 1 1 4 7</t>
-  </si>
-  <si>
-    <t>Kortrijk,1 2 0 1 3 1 1 0 2 1 1 5 0 3 0 0 2 0 1 2 1 0 1 0 1 3 1 2 1 2 0 1 4 1</t>
-  </si>
-  <si>
-    <t>Mechelen,2 1 2 0 0 1 2 1 1 2 3 2 2 1 2 2 0 2 2 3 1 0 3 3 0 1 2 1 0 1 2 1 4 4</t>
-  </si>
-  <si>
-    <t>Mouscron,1 0 1 0 0 0 1 0 0 1 2 0 3 0 0 3 2 1 1 0 2 1 2 1 1 0 0 1 2 1 0 1 2 2</t>
-  </si>
-  <si>
-    <t>Oostende,1 0 0 2 1 3 2 3 3 0 1 1 0 1 2 1 1 2 3 1 2 1 2 2 1 3 3 1 2 0 1 0 2 1</t>
-  </si>
-  <si>
-    <t>Oud-Heverlee Leuven,1 1 1 3 1 1 3 2 2 2 2 2 2 2 2 3 2 1 1 1 1 3 0 1 0 1 3 0 2 3 2 2 0 1</t>
-  </si>
-  <si>
-    <t>St Truiden,2 1 0 1 2 0 0 0 3 2 1 2 1 2 0 1 2 2 1 1 3 2 0 1 3 1 1 0 0 0 2 4 0 0</t>
-  </si>
-  <si>
-    <t>Standard,1 2 0 3 0 2 2 2 1 0 1 1 2 0 2 1 1 0 1 3 1 4 3 2 1 1 1 2 1 0 2 2 4 3</t>
-  </si>
-  <si>
-    <t>Waasland-Beveren,3 1 1 1 1 2 2 1 1 1 0 2 1 2 2 3 0 0 1 1 1 1 0 2 2 0 1 1 0 1 2 2 3 2</t>
-  </si>
-  <si>
-    <t>Waregem,1 1 4 1 0 0 2 1 1 0 1 3 1 3 2 1 0 1 3 1 5 2 0 2 2 1 2 3 2 0 1 2 2 2</t>
-  </si>
-  <si>
-    <t>Anderlecht,2 1 1 2 0 2 1 3 2 1 0 1 2 0 2 0 1 1 0 1 2 0 0 1 0 1 0 2 1 1 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Antwerp,1 2 0 2 2 2 1 1 1 2 1 1 1 2 4 2 1 0 1 3 0 0 2 0 2 1 1 0 2 2 0 4 2 2</t>
-  </si>
-  <si>
-    <t>Beerschot VA,1 1 0 3 2 3 2 5 3 3 2 5 1 2 1 3 2 1 1 1 3 3 0 0 0 2 2 1 2 1 2 1 2 3</t>
-  </si>
-  <si>
-    <t>Cercle Brugge,1 1 2 1 2 0 2 1 2 3 3 0 2 5 2 1 4 1 2 1 1 1 1 2 3 1 0 1 0 2 1 1 0 1</t>
-  </si>
-  <si>
-    <t>Charleroi,0 0 1 0 0 1 1 2 2 0 3 1 3 2 0 1 3 0 2 3 1 3 3 1 1 1 1 2 0 1 1 2 4 3</t>
-  </si>
-  <si>
-    <t>Club Brugge,1 0 1 1 1 0 1 0 1 2 2 1 0 0 0 0 0 1 0 1 0 1 2 1 1 0 0 0 1 0 2 1 2 2</t>
-  </si>
-  <si>
-    <t>Eupen,1 4 0 1 1 2 1 2 0 4 1 2 1 1 0 3 3 4 1 1 0 1 3 2 1 2 1 1 0 3 0 2 4 2</t>
-  </si>
-  <si>
-    <t>Genk,1 1 0 2 5 1 2 1 1 1 0 1 1 1 2 1 0 1 1 2 2 1 3 2 0 2 3 2 1 0 2 2 0 3</t>
-  </si>
-  <si>
-    <t>Gent,2 2 1 0 2 0 3 1 5 2 1 1 0 3 2 1 0 0 1 1 1 1 0 1 0 2 0 1 0 4 0 2 0 2</t>
-  </si>
-  <si>
-    <t>Kortrijk,3 1 0 0 0 2 3 0 1 3 1 5 1 1 0 3 1 2 0 1 2 2 2 0 3 0 3 0 2 4 2 2 3 4</t>
-  </si>
-  <si>
-    <t>Mechelen,2 0 3 1 1 3 0 4 2 2 3 1 3 1 2 3 3 1 1 0 0 4 0 2 0 0 1 1 2 1 2 2 2 1</t>
-  </si>
-  <si>
-    <t>Mouscron,1 1 1 1 3 1 1 3 2 4 1 0 2 2 2 1 2 0 2 1 0 1 0 1 1 3 4 2 2 0 1 1 3 4</t>
-  </si>
-  <si>
-    <t>Oostende,2 1 0 2 0 1 2 0 0 1 3 1 2 3 1 0 2 1 2 1 1 2 1 2 2 1 1 1 0 1 0 2 1 1</t>
-  </si>
-  <si>
-    <t>Oud-Heverlee Leuven,1 1 3 1 0 3 2 1 2 1 4 2 3 1 0 0 2 2 2 0 3 2 3 1 1 1 1 3 0 3 2 3 3 2</t>
-  </si>
-  <si>
-    <t>St Truiden,1 3 0 1 3 3 2 0 6 0 2 2 1 3 1 2 0 1 0 2 1 0 2 1 0 3 2 0 2 0 1 2 4 1</t>
-  </si>
-  <si>
-    <t>Standard,0 1 0 0 1 1 2 1 1 2 0 1 2 0 2 2 2 1 2 1 0 0 2 2 3 1 1 3 3 1 2 1 0 0</t>
-  </si>
-  <si>
-    <t>Waasland-Beveren,1 2 4 3 4 4 3 1 4 1 2 0 1 0 0 2 3 3 1 3 5 1 0 3 3 2 0 1 2 2 0 4 4 1</t>
-  </si>
-  <si>
-    <t>Waregem,2 3 1 0 2 6 2 2 3 3 1 1 2 0 2 0 2 0 2 0 1 3 3 3 1 1 1 2 1 3 4 1 4 7</t>
-  </si>
-  <si>
-    <t>Anderlecht,4 4 2 4 2 6 2 3 4 4 1 2 3 0 4 1 3 1 2 1 2 3 0 2 0 3 0 2 4 2 5 5 3 1</t>
-  </si>
-  <si>
-    <t>Antwerp,2 3 1 2 5 4 4 5 4 5 1 2 2 5 6 2 1 3 3 3 1 1 3 2 5 3 2 0 2 6 2 5 5 5</t>
-  </si>
-  <si>
-    <t>Beerschot VA,3 4 1 3 7 4 5 6 9 5 6 10 3 5 1 4 2 1 2 2 3 4 3 0 1 3 3 3 4 3 3 3 3 3</t>
-  </si>
-  <si>
-    <t>Cercle Brugge,1 3 5 1 2 3 3 3 7 3 4 2 3 6 3 1 7 1 3 2 1 1 3 3 3 1 0 3 2 2 1 3 3 2</t>
-  </si>
-  <si>
-    <t>Charleroi,1 1 4 2 2 4 2 3 3 3 6 1 4 2 0 3 7 1 3 5 1 3 5 2 4 2 2 3 0 2 2 3 4 5</t>
-  </si>
-  <si>
-    <t>Club Brugge,1 4 1 3 5 6 3 3 2 3 4 4 1 0 1 2 3 1 3 3 3 3 5 3 4 2 3 3 2 4 2 3 3 6</t>
-  </si>
-  <si>
-    <t>Eupen,2 4 0 2 3 4 2 3 2 4 2 4 4 2 1 3 5 5 3 2 2 4 3 2 2 4 1 2 2 6 2 3 4 5</t>
-  </si>
-  <si>
-    <t>Genk,3 2 0 3 7 4 4 2 3 3 4 3 5 6 6 1 2 2 5 3 2 2 5 5 0 3 4 3 3 2 4 5 4 5</t>
-  </si>
-  <si>
-    <t>Gent,3 3 1 1 3 1 5 6 7 3 5 2 1 3 3 3 3 1 1 2 1 2 3 2 0 4 4 2 1 4 1 3 4 9</t>
-  </si>
-  <si>
-    <t>Kortrijk,4 3 0 1 3 3 4 0 3 4 2 10 1 4 0 3 3 2 1 3 3 2 3 0 4 3 4 2 3 6 2 3 7 5</t>
-  </si>
-  <si>
-    <t>Mechelen,4 1 5 1 1 4 2 5 3 4 6 3 5 2 4 5 3 3 3 3 1 4 3 5 0 1 3 2 2 2 4 3 6 5</t>
-  </si>
-  <si>
-    <t>Mouscron,2 1 2 1 3 1 2 3 2 5 3 0 5 2 2 4 4 1 3 1 2 2 2 2 2 3 4 3 4 1 1 2 5 6</t>
-  </si>
-  <si>
-    <t>Oostende,3 1 0 4 1 4 4 3 3 1 4 2 2 4 3 1 3 3 5 2 3 3 3 4 3 4 4 2 2 1 1 2 3 2</t>
-  </si>
-  <si>
-    <t>Oud-Heverlee Leuven,2 2 4 4 1 4 5 3 4 3 6 4 5 3 2 3 4 3 3 1 4 5 3 2 1 2 4 3 2 6 4 5 3 3</t>
-  </si>
-  <si>
-    <t>St Truiden,3 4 0 2 5 3 2 0 9 2 3 4 2 5 1 3 2 3 1 3 4 2 2 2 3 4 3 0 2 0 3 6 4 1</t>
-  </si>
-  <si>
-    <t>Standard,1 3 0 3 1 3 4 3 2 2 1 2 4 0 4 3 3 1 3 4 1 4 5 4 4 2 2 5 4 1 4 3 4 3</t>
-  </si>
-  <si>
-    <t>Waasland-Beveren,4 3 5 4 5 6 5 2 5 2 2 2 2 2 2 5 3 3 2 4 6 2 0 5 5 2 1 2 2 3 2 6 7 3</t>
-  </si>
-  <si>
-    <t>Waregem,3 4 5 1 2 6 4 3 4 3 2 4 3 3 4 1 2 1 5 1 6 5 3 5 3 2 3 5 3 3 5 3 6 9</t>
-  </si>
-  <si>
-    <t>Anderlecht,Mechelen St Truiden Mouscron Oostende Cercle Brugge Waasland-Beveren Eupen Club Brugge Oud-Heverlee Leuven Kortrijk Antwerp Gent Beerschot VA Standard Waregem Genk Oostende Charleroi Beerschot VA Oud-Heverlee Leuven Eupen Charleroi Waasland-Beveren Mouscron Gent Genk Cercle Brugge Kortrijk Standard Mechelen Waregem Antwerp Club Brugge St Truiden</t>
-  </si>
-  <si>
-    <t>Antwerp,Mouscron Cercle Brugge Gent Charleroi St Truiden Eupen Kortrijk Mechelen Waregem Beerschot VA Anderlecht Standard Oostende Oud-Heverlee Leuven Genk Club Brugge Waregem Waasland-Beveren Charleroi Mechelen Gent Cercle Brugge Oostende Eupen Waasland-Beveren Beerschot VA Standard St Truiden Oud-Heverlee Leuven Kortrijk Club Brugge Anderlecht Mouscron Genk</t>
-  </si>
-  <si>
-    <t>Beerschot VA,Oostende Waregem Club Brugge Standard Genk Charleroi Waasland-Beveren Gent St Truiden Antwerp Oud-Heverlee Leuven Kortrijk Anderlecht Mechelen Eupen Mouscron Anderlecht St Truiden Gent Cercle Brugge Club Brugge Eupen Waregem Kortrijk Oud-Heverlee Leuven Antwerp Mechelen Genk Mouscron Waasland-Beveren Cercle Brugge Charleroi Oostende Standard</t>
-  </si>
-  <si>
-    <t>Cercle Brugge,Standard Antwerp Mechelen Kortrijk Anderlecht St Truiden Club Brugge Eupen Gent Charleroi Waregem Waasland-Beveren Mouscron Genk Oud-Heverlee Leuven Oostende Charleroi Waregem Eupen Beerschot VA Standard Antwerp Kortrijk Club Brugge St Truiden Mechelen Anderlecht Mouscron Waasland-Beveren Genk Gent Beerschot VA Oud-Heverlee Leuven Oostende</t>
-  </si>
-  <si>
-    <t>Charleroi,Club Brugge Oostende Oud-Heverlee Leuven Antwerp Waregem Beerschot VA Mouscron Standard Genk Cercle Brugge Mechelen Gent Eupen Waasland-Beveren Kortrijk St Truiden Cercle Brugge Anderlecht Antwerp Oostende Mechelen Anderlecht Standard Oud-Heverlee Leuven Kortrijk Waregem Waasland-Beveren Genk St Truiden Club Brugge Mouscron Beerschot VA Gent Eupen</t>
-  </si>
-  <si>
-    <t>Club Brugge,Charleroi Eupen Beerschot VA Genk Waasland-Beveren Waregem Cercle Brugge Anderlecht Standard Oud-Heverlee Leuven Mechelen Oostende Kortrijk Mouscron St Truiden Antwerp Mechelen Gent Eupen St Truiden Beerschot VA Oostende Genk Cercle Brugge Standard Waasland-Beveren Oud-Heverlee Leuven Waregem Charleroi Gent Antwerp Kortrijk Anderlecht Mouscron</t>
-  </si>
-  <si>
-    <t>Eupen,Oud-Heverlee Leuven Club Brugge Kortrijk St Truiden Gent Antwerp Anderlecht Cercle Brugge Mouscron Genk Waasland-Beveren Standard Charleroi Mechelen Beerschot VA Club Brugge Waregem Genk Cercle Brugge Oostende Anderlecht Beerschot VA Mechelen Antwerp Mouscron Gent Waasland-Beveren Oostende St Truiden Oud-Heverlee Leuven Kortrijk Waregem Standard Charleroi</t>
-  </si>
-  <si>
-    <t>Genk,Waregem Oud-Heverlee Leuven Standard Club Brugge Beerschot VA Mechelen Oostende Waasland-Beveren Charleroi Gent Eupen St Truiden Mouscron Cercle Brugge Antwerp Anderlecht Kortrijk Waasland-Beveren Eupen Kortrijk Mouscron Gent Club Brugge Waregem Mechelen Anderlecht Oostende Beerschot VA Charleroi Cercle Brugge Standard Oud-Heverlee Leuven St Truiden Antwerp</t>
-  </si>
-  <si>
-    <t>Gent,St Truiden Kortrijk Antwerp Mechelen Eupen Mouscron Oud-Heverlee Leuven Beerschot VA Cercle Brugge Genk Waasland-Beveren Anderlecht Charleroi Waregem Oostende Standard Waasland-Beveren Club Brugge Kortrijk Beerschot VA Antwerp Genk Oud-Heverlee Leuven St Truiden Anderlecht Eupen Mouscron Mechelen Oostende Club Brugge Cercle Brugge Standard Charleroi Waregem</t>
-  </si>
-  <si>
-    <t>Kortrijk,Waasland-Beveren Gent Eupen Cercle Brugge Mouscron Standard Antwerp St Truiden Mechelen Anderlecht Waregem Beerschot VA Club Brugge Oostende Charleroi Oud-Heverlee Leuven Standard Genk Gent Genk Oostende St Truiden Cercle Brugge Beerschot VA Charleroi Mouscron Oud-Heverlee Leuven Anderlecht Waregem Antwerp Eupen Club Brugge Waasland-Beveren Mechelen</t>
-  </si>
-  <si>
-    <t>Mechelen,Anderlecht Mouscron Cercle Brugge Gent Oostende Genk St Truiden Antwerp Kortrijk Club Brugge Charleroi Waregem Beerschot VA Eupen Standard Waasland-Beveren Club Brugge Oud-Heverlee Leuven Mouscron Antwerp Charleroi Standard Eupen Waasland-Beveren Genk Cercle Brugge Beerschot VA Gent Oostende Anderlecht Oud-Heverlee Leuven St Truiden Waregem Kortrijk</t>
-  </si>
-  <si>
-    <t>Mouscron,Antwerp Mechelen Anderlecht Waregem Kortrijk Gent Charleroi Oostende Eupen Genk Cercle Brugge Club Brugge St Truiden Waasland-Beveren Oud-Heverlee Leuven Beerschot VA Oud-Heverlee Leuven Standard Mechelen Waregem Genk Waasland-Beveren St Truiden Anderlecht Eupen Kortrijk Gent Cercle Brugge Beerschot VA Standard Oostende Charleroi Antwerp Club Brugge</t>
-  </si>
-  <si>
-    <t>Oostende,Beerschot VA Charleroi St Truiden Anderlecht Mechelen Oud-Heverlee Leuven Genk Mouscron Waregem Standard Club Brugge Antwerp Waasland-Beveren Kortrijk Gent Cercle Brugge Anderlecht Oud-Heverlee Leuven Charleroi Eupen Kortrijk Club Brugge Antwerp Standard Waregem St Truiden Genk Eupen Mechelen Gent Mouscron Waasland-Beveren Beerschot VA Cercle Brugge</t>
-  </si>
-  <si>
-    <t>Oud-Heverlee Leuven,Eupen Genk Charleroi Waasland-Beveren Standard Oostende Gent Waregem Anderlecht Club Brugge Beerschot VA St Truiden Antwerp Cercle Brugge Mouscron Kortrijk Mouscron Mechelen Oostende Anderlecht St Truiden Waregem Gent Charleroi Beerschot VA Standard Kortrijk Club Brugge Antwerp Eupen Mechelen Genk Cercle Brugge Waasland-Beveren</t>
-  </si>
-  <si>
-    <t>St Truiden,Gent Anderlecht Oostende Eupen Antwerp Cercle Brugge Mechelen Kortrijk Beerschot VA Standard Genk Oud-Heverlee Leuven Waasland-Beveren Mouscron Club Brugge Charleroi Waregem Standard Beerschot VA Club Brugge Oud-Heverlee Leuven Kortrijk Mouscron Gent Cercle Brugge Oostende Waregem Antwerp Eupen Charleroi Mechelen Waasland-Beveren Genk Anderlecht</t>
-  </si>
-  <si>
-    <t>Standard,Cercle Brugge Waasland-Beveren Genk Beerschot VA Oud-Heverlee Leuven Kortrijk Waregem Charleroi Club Brugge St Truiden Oostende Antwerp Eupen Anderlecht Mechelen Gent Kortrijk Mouscron St Truiden Waasland-Beveren Cercle Brugge Mechelen Charleroi Oostende Club Brugge Oud-Heverlee Leuven Antwerp Waregem Anderlecht Mouscron Genk Gent Eupen Beerschot VA</t>
-  </si>
-  <si>
-    <t>Waasland-Beveren,Kortrijk Standard Waregem Oud-Heverlee Leuven Club Brugge Anderlecht Beerschot VA Genk Gent Eupen Cercle Brugge Oostende St Truiden Charleroi Mouscron Mechelen Gent Antwerp Genk Standard Waregem Mouscron Anderlecht Mechelen Antwerp Club Brugge Eupen Charleroi Cercle Brugge Beerschot VA Oostende St Truiden Kortrijk Oud-Heverlee Leuven</t>
-  </si>
-  <si>
-    <t>Waregem,Genk Beerschot VA Waasland-Beveren Mouscron Charleroi Club Brugge Standard Oud-Heverlee Leuven Antwerp Oostende Kortrijk Cercle Brugge Mechelen Gent Anderlecht Antwerp St Truiden Cercle Brugge Eupen Mouscron Waasland-Beveren Oud-Heverlee Leuven Beerschot VA Genk Oostende Charleroi St Truiden Standard Kortrijk Club Brugge Anderlecht Eupen Mechelen Gent</t>
+    <t>Anderlecht,W D W W W W</t>
+  </si>
+  <si>
+    <t>Antwerp,L W W L W W</t>
+  </si>
+  <si>
+    <t>Beerschot VA,D W L W L L</t>
+  </si>
+  <si>
+    <t>Cercle Brugge,W L L W W D</t>
+  </si>
+  <si>
+    <t>Charleroi,D D D L L L</t>
+  </si>
+  <si>
+    <t>Club Brugge,D W L W L W</t>
+  </si>
+  <si>
+    <t>Eupen,W D W L L W</t>
+  </si>
+  <si>
+    <t>Genk,W W D W W L</t>
+  </si>
+  <si>
+    <t>Gent,W L W L W W</t>
+  </si>
+  <si>
+    <t>Kortrijk,L L L L W L</t>
+  </si>
+  <si>
+    <t>Mechelen,L D D L W W</t>
+  </si>
+  <si>
+    <t>Mouscron,D W L D L L</t>
+  </si>
+  <si>
+    <t>Oostende,W L W L W D</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven,W D D L L L</t>
+  </si>
+  <si>
+    <t>St Truiden,L D W W L L</t>
+  </si>
+  <si>
+    <t>Standard,L L D W W W</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren,L L W L L W</t>
+  </si>
+  <si>
+    <t>Waregem,W L L W L L</t>
+  </si>
+  <si>
+    <t>Anderlecht,3 1 4 4 2 1,(15)</t>
+  </si>
+  <si>
+    <t>Antwerp,0 4 2 1 3 3,(13)</t>
+  </si>
+  <si>
+    <t>Beerschot VA,2 2 1 2 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Cercle Brugge,2 0 0 2 3 1,(8)</t>
+  </si>
+  <si>
+    <t>Charleroi,0 1 1 1 0 2,(5)</t>
+  </si>
+  <si>
+    <t>Club Brugge,1 4 0 2 1 4,(12)</t>
+  </si>
+  <si>
+    <t>Eupen,2 3 2 1 0 3,(11)</t>
+  </si>
+  <si>
+    <t>Genk,2 2 2 3 4 2,(15)</t>
+  </si>
+  <si>
+    <t>Gent,1 0 1 1 4 7,(14)</t>
+  </si>
+  <si>
+    <t>Kortrijk,1 2 0 1 4 1,(9)</t>
+  </si>
+  <si>
+    <t>Mechelen,0 1 2 1 4 4,(12)</t>
+  </si>
+  <si>
+    <t>Mouscron,2 1 0 1 2 2,(8)</t>
+  </si>
+  <si>
+    <t>Oostende,2 0 1 0 2 1,(6)</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven,2 3 2 2 0 1,(10)</t>
+  </si>
+  <si>
+    <t>St Truiden,0 0 2 4 0 0,(6)</t>
+  </si>
+  <si>
+    <t>Standard,1 0 2 2 4 3,(12)</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren,0 1 2 2 3 2,(10)</t>
+  </si>
+  <si>
+    <t>Waregem,2 0 1 2 2 2,(9)</t>
+  </si>
+  <si>
+    <t>Anderlecht,1 1 1 1 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Antwerp,2 2 0 4 2 2,(12)</t>
+  </si>
+  <si>
+    <t>Beerschot VA,2 1 2 1 2 3,(11)</t>
+  </si>
+  <si>
+    <t>Cercle Brugge,0 2 1 1 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Charleroi,0 1 1 2 4 3,(11)</t>
+  </si>
+  <si>
+    <t>Club Brugge,1 0 2 1 2 2,(8)</t>
+  </si>
+  <si>
+    <t>Eupen,0 3 0 2 4 2,(11)</t>
+  </si>
+  <si>
+    <t>Genk,1 0 2 2 0 3,(8)</t>
+  </si>
+  <si>
+    <t>Gent,0 4 0 2 0 2,(8)</t>
+  </si>
+  <si>
+    <t>Kortrijk,2 4 2 2 3 4,(17)</t>
+  </si>
+  <si>
+    <t>Mechelen,2 1 2 2 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Mouscron,2 0 1 1 3 4,(11)</t>
+  </si>
+  <si>
+    <t>Oostende,0 1 0 2 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven,0 3 2 3 3 2,(13)</t>
+  </si>
+  <si>
+    <t>St Truiden,2 0 1 2 4 1,(10)</t>
+  </si>
+  <si>
+    <t>Standard,3 1 2 1 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren,2 2 0 4 4 1,(13)</t>
+  </si>
+  <si>
+    <t>Waregem,1 3 4 1 4 7,(20)</t>
+  </si>
+  <si>
+    <t>Anderlecht,4 2 5 5 3 1,(20)</t>
+  </si>
+  <si>
+    <t>Antwerp,2 6 2 5 5 5,(25)</t>
+  </si>
+  <si>
+    <t>Beerschot VA,4 3 3 3 3 3,(19)</t>
+  </si>
+  <si>
+    <t>Cercle Brugge,2 2 1 3 3 2,(13)</t>
+  </si>
+  <si>
+    <t>Charleroi,0 2 2 3 4 5,(16)</t>
+  </si>
+  <si>
+    <t>Club Brugge,2 4 2 3 3 6,(20)</t>
+  </si>
+  <si>
+    <t>Eupen,2 6 2 3 4 5,(22)</t>
+  </si>
+  <si>
+    <t>Genk,3 2 4 5 4 5,(23)</t>
+  </si>
+  <si>
+    <t>Gent,1 4 1 3 4 9,(22)</t>
+  </si>
+  <si>
+    <t>Kortrijk,3 6 2 3 7 5,(26)</t>
+  </si>
+  <si>
+    <t>Mechelen,2 2 4 3 6 5,(22)</t>
+  </si>
+  <si>
+    <t>Mouscron,4 1 1 2 5 6,(19)</t>
+  </si>
+  <si>
+    <t>Oostende,2 1 1 2 3 2,(11)</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven,2 6 4 5 3 3,(23)</t>
+  </si>
+  <si>
+    <t>St Truiden,2 0 3 6 4 1,(16)</t>
+  </si>
+  <si>
+    <t>Standard,4 1 4 3 4 3,(19)</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren,2 3 2 6 7 3,(23)</t>
+  </si>
+  <si>
+    <t>Waregem,3 3 5 3 6 9,(29)</t>
+  </si>
+  <si>
+    <t>Anderlecht,Standard Mechelen Waregem Antwerp Club Brugge St Truiden</t>
+  </si>
+  <si>
+    <t>Antwerp,Oud-Heverlee Leuven Kortrijk Club Brugge Anderlecht Mouscron Genk</t>
+  </si>
+  <si>
+    <t>Beerschot VA,Mouscron Waasland-Beveren Cercle Brugge Charleroi Oostende Standard</t>
+  </si>
+  <si>
+    <t>Cercle Brugge,Waasland-Beveren Genk Gent Beerschot VA Oud-Heverlee Leuven Oostende</t>
+  </si>
+  <si>
+    <t>Charleroi,St Truiden Club Brugge Mouscron Beerschot VA Gent Eupen</t>
+  </si>
+  <si>
+    <t>Club Brugge,Charleroi Gent Antwerp Kortrijk Anderlecht Mouscron</t>
+  </si>
+  <si>
+    <t>Eupen,St Truiden Oud-Heverlee Leuven Kortrijk Waregem Standard Charleroi</t>
+  </si>
+  <si>
+    <t>Genk,Charleroi Cercle Brugge Standard Oud-Heverlee Leuven St Truiden Antwerp</t>
+  </si>
+  <si>
+    <t>Gent,Oostende Club Brugge Cercle Brugge Standard Charleroi Waregem</t>
+  </si>
+  <si>
+    <t>Kortrijk,Waregem Antwerp Eupen Club Brugge Waasland-Beveren Mechelen</t>
+  </si>
+  <si>
+    <t>Mechelen,Oostende Anderlecht Oud-Heverlee Leuven St Truiden Waregem Kortrijk</t>
+  </si>
+  <si>
+    <t>Mouscron,Beerschot VA Standard Oostende Charleroi Antwerp Club Brugge</t>
+  </si>
+  <si>
+    <t>Oostende,Mechelen Gent Mouscron Waasland-Beveren Beerschot VA Cercle Brugge</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven,Antwerp Eupen Mechelen Genk Cercle Brugge Waasland-Beveren</t>
+  </si>
+  <si>
+    <t>St Truiden,Eupen Charleroi Mechelen Waasland-Beveren Genk Anderlecht</t>
+  </si>
+  <si>
+    <t>Standard,Anderlecht Mouscron Genk Gent Eupen Beerschot VA</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren,Cercle Brugge Beerschot VA Oostende St Truiden Kortrijk Oud-Heverlee Leuven</t>
+  </si>
+  <si>
+    <t>Waregem,Kortrijk Club Brugge Anderlecht Eupen Mechelen Gent</t>
   </si>
 </sst>
 </file>
@@ -1501,9 +1501,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -32236,15 +32235,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="23" max="23" width="15.42578125" customWidth="1"/>
-    <col min="24" max="24" width="19.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -35131,16 +35124,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="89.42578125" customWidth="1"/>
-    <col min="3" max="3" width="72.7109375" customWidth="1"/>
-    <col min="4" max="4" width="74.140625" customWidth="1"/>
-    <col min="5" max="5" width="83" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="94.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -35161,8 +35153,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>390</v>
@@ -35181,8 +35173,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>391</v>
@@ -35201,8 +35193,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>392</v>
@@ -35221,8 +35213,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>393</v>
@@ -35241,8 +35233,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>394</v>
@@ -35261,8 +35253,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>395</v>
@@ -35281,8 +35273,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>396</v>
@@ -35301,8 +35293,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>397</v>
@@ -35321,8 +35313,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>398</v>
@@ -35341,8 +35333,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>399</v>
@@ -35361,8 +35353,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>400</v>
@@ -35381,8 +35373,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>401</v>
@@ -35401,8 +35393,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>402</v>
@@ -35421,8 +35413,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>403</v>
@@ -35441,8 +35433,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>404</v>
@@ -35461,8 +35453,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>405</v>
@@ -35481,8 +35473,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
+      <c r="A18" t="s">
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>406</v>
@@ -35501,8 +35493,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
+      <c r="A19" t="s">
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>407</v>

--- a/Divisions/B1.xlsx
+++ b/Divisions/B1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\Divisions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\Divisions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="731" activeTab="7"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11280" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -35124,15 +35124,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
-    <col min="6" max="6" width="94.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="6" max="6" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/Divisions/B1.xlsx
+++ b/Divisions/B1.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\Divisions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11280" firstSheet="7" activeTab="7"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Form" sheetId="2" r:id="rId2"/>
-    <sheet name="Goals scored" sheetId="3" r:id="rId3"/>
-    <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
-    <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
-    <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
-    <sheet name="Shots Analysis" sheetId="7" r:id="rId7"/>
-    <sheet name="L6" sheetId="8" r:id="rId8"/>
+    <sheet name="Table" r:id="rId3" sheetId="1"/>
+    <sheet name="Form" r:id="rId4" sheetId="2"/>
+    <sheet name="Goals scored" r:id="rId5" sheetId="3"/>
+    <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
+    <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
+    <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
+    <sheet name="L6" r:id="rId10" sheetId="8"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1471,10 +1464,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1486,7 +1480,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1504,292 +1498,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1818,7 +1539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1850,7 +1571,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1882,7 +1603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1914,7 +1635,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1946,7 +1667,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1978,7 +1699,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2010,7 +1731,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2042,7 +1763,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2074,7 +1795,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2106,7 +1827,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2138,7 +1859,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2170,7 +1891,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2202,7 +1923,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2234,7 +1955,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2266,7 +1987,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2298,7 +2019,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2330,7 +2051,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2362,7 +2083,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2395,19 +2116,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DZ19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -2796,7 +2518,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -3188,7 +2910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3580,7 +3302,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -3972,7 +3694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -4364,7 +4086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -4756,7 +4478,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5148,7 +4870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -5540,7 +5262,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5932,7 +5654,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -6324,7 +6046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -6716,7 +6438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -7108,7 +6830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -7500,7 +7222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -7892,7 +7614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -8284,7 +8006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -8676,7 +8398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -9068,7 +8790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -9460,7 +9182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -9853,19 +9575,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DZ19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -10254,7 +9977,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -10646,7 +10369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -11038,7 +10761,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -11430,7 +11153,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -11822,7 +11545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -12214,7 +11937,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -12606,7 +12329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -12998,7 +12721,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -13390,7 +13113,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -13782,7 +13505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -14174,7 +13897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -14566,7 +14289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -14958,7 +14681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -15350,7 +15073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -15742,7 +15465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -16134,7 +15857,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -16526,7 +16249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -16918,7 +16641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -17311,19 +17034,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DZ19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -17712,7 +17436,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -18104,7 +17828,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -18496,7 +18220,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -18888,7 +18612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -19280,7 +19004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -19672,7 +19396,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -20064,7 +19788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -20456,7 +20180,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -20848,7 +20572,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -21240,7 +20964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -21632,7 +21356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -22024,7 +21748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -22416,7 +22140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -22808,7 +22532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -23200,7 +22924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -23592,7 +23316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -23984,7 +23708,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -24376,7 +24100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -24769,19 +24493,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DZ19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -25170,7 +24895,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -25562,7 +25287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -25954,7 +25679,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -26346,7 +26071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -26738,7 +26463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -27130,7 +26855,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -27522,7 +27247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -27914,7 +27639,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -28306,7 +28031,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -28698,7 +28423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -29090,7 +28815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -29482,7 +29207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -29874,7 +29599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -30266,7 +29991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -30658,7 +30383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -31050,7 +30775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -31442,7 +31167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -31834,7 +31559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -32227,19 +31952,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>29</v>
       </c>
@@ -32310,7 +32036,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -32384,7 +32110,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -32458,7 +32184,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -32532,7 +32258,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -32606,7 +32332,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -32680,7 +32406,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -32754,7 +32480,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -32828,7 +32554,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -32902,7 +32628,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -32976,7 +32702,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -33050,7 +32776,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -33124,7 +32850,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -33198,7 +32924,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -33272,7 +32998,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -33346,7 +33072,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -33420,7 +33146,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -33494,7 +33220,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -33568,7 +33294,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -33643,19 +33369,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>264</v>
       </c>
@@ -33729,36 +33456,36 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2">
-        <v>80</v>
-      </c>
-      <c r="D2">
-        <v>65</v>
-      </c>
-      <c r="E2">
-        <v>145</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2">
+      <c r="C2" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.4705882352941178</v>
       </c>
-      <c r="H2">
-        <v>26</v>
-      </c>
-      <c r="I2">
+      <c r="H2" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.5294117647058822</v>
       </c>
-      <c r="J2">
-        <v>51</v>
+      <c r="J2" t="n">
+        <v>51.0</v>
       </c>
       <c r="K2" t="s">
         <v>287</v>
@@ -33769,32 +33496,32 @@
       <c r="M2" t="s">
         <v>321</v>
       </c>
-      <c r="N2">
-        <v>34</v>
-      </c>
-      <c r="O2">
-        <v>47</v>
-      </c>
-      <c r="P2">
-        <v>63</v>
-      </c>
-      <c r="Q2">
-        <v>110</v>
-      </c>
-      <c r="R2">
-        <v>11</v>
-      </c>
-      <c r="S2">
+      <c r="N2" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.6470588235294118</v>
       </c>
-      <c r="T2">
-        <v>23</v>
-      </c>
-      <c r="U2">
+      <c r="T2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.3529411764705883</v>
       </c>
-      <c r="V2">
-        <v>34</v>
+      <c r="V2" t="n">
+        <v>34.0</v>
       </c>
       <c r="W2" t="s">
         <v>338</v>
@@ -33806,36 +33533,36 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3">
-        <v>83</v>
-      </c>
-      <c r="D3">
-        <v>72</v>
-      </c>
-      <c r="E3">
-        <v>155</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3">
+      <c r="C3" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.7647058823529411</v>
       </c>
-      <c r="H3">
-        <v>27</v>
-      </c>
-      <c r="I3">
+      <c r="H3" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1.588235294117647</v>
       </c>
-      <c r="J3">
-        <v>57</v>
+      <c r="J3" t="n">
+        <v>57.0</v>
       </c>
       <c r="K3" t="s">
         <v>288</v>
@@ -33846,32 +33573,32 @@
       <c r="M3" t="s">
         <v>322</v>
       </c>
-      <c r="N3">
-        <v>34</v>
-      </c>
-      <c r="O3">
-        <v>69</v>
-      </c>
-      <c r="P3">
-        <v>82</v>
-      </c>
-      <c r="Q3">
-        <v>151</v>
-      </c>
-      <c r="R3">
-        <v>25</v>
-      </c>
-      <c r="S3">
+      <c r="N3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.4705882352941178</v>
       </c>
-      <c r="T3">
-        <v>23</v>
-      </c>
-      <c r="U3">
+      <c r="T3" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.3529411764705883</v>
       </c>
-      <c r="V3">
-        <v>48</v>
+      <c r="V3" t="n">
+        <v>48.0</v>
       </c>
       <c r="W3" t="s">
         <v>339</v>
@@ -33883,36 +33610,36 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C4">
-        <v>79</v>
-      </c>
-      <c r="D4">
-        <v>69</v>
-      </c>
-      <c r="E4">
-        <v>148</v>
-      </c>
-      <c r="F4">
-        <v>32</v>
-      </c>
-      <c r="G4">
+      <c r="C4" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.8823529411764706</v>
       </c>
-      <c r="H4">
-        <v>26</v>
-      </c>
-      <c r="I4">
+      <c r="H4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.5294117647058822</v>
       </c>
-      <c r="J4">
-        <v>58</v>
+      <c r="J4" t="n">
+        <v>58.0</v>
       </c>
       <c r="K4" t="s">
         <v>289</v>
@@ -33923,32 +33650,32 @@
       <c r="M4" t="s">
         <v>323</v>
       </c>
-      <c r="N4">
-        <v>34</v>
-      </c>
-      <c r="O4">
-        <v>74</v>
-      </c>
-      <c r="P4">
-        <v>84</v>
-      </c>
-      <c r="Q4">
-        <v>158</v>
-      </c>
-      <c r="R4">
-        <v>29</v>
-      </c>
-      <c r="S4">
+      <c r="N4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.7058823529411764</v>
       </c>
-      <c r="T4">
-        <v>35</v>
-      </c>
-      <c r="U4">
+      <c r="T4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.0588235294117645</v>
       </c>
-      <c r="V4">
-        <v>64</v>
+      <c r="V4" t="n">
+        <v>64.0</v>
       </c>
       <c r="W4" t="s">
         <v>323</v>
@@ -33960,36 +33687,36 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5">
-        <v>70</v>
-      </c>
-      <c r="D5">
-        <v>56</v>
-      </c>
-      <c r="E5">
-        <v>126</v>
-      </c>
-      <c r="F5">
-        <v>25</v>
-      </c>
-      <c r="G5">
+      <c r="C5" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.4705882352941178</v>
       </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="J5">
-        <v>40</v>
+      <c r="H5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="J5" t="n">
+        <v>40.0</v>
       </c>
       <c r="K5" t="s">
         <v>290</v>
@@ -34000,32 +33727,32 @@
       <c r="M5" t="s">
         <v>324</v>
       </c>
-      <c r="N5">
-        <v>34</v>
-      </c>
-      <c r="O5">
-        <v>62</v>
-      </c>
-      <c r="P5">
-        <v>83</v>
-      </c>
-      <c r="Q5">
-        <v>145</v>
-      </c>
-      <c r="R5">
-        <v>26</v>
-      </c>
-      <c r="S5">
+      <c r="N5" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.5294117647058822</v>
       </c>
-      <c r="T5">
-        <v>25</v>
-      </c>
-      <c r="U5">
+      <c r="T5" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.4705882352941178</v>
       </c>
-      <c r="V5">
-        <v>51</v>
+      <c r="V5" t="n">
+        <v>51.0</v>
       </c>
       <c r="W5" t="s">
         <v>340</v>
@@ -34037,36 +33764,36 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6">
-        <v>85</v>
-      </c>
-      <c r="D6">
-        <v>65</v>
-      </c>
-      <c r="E6">
-        <v>150</v>
-      </c>
-      <c r="F6">
-        <v>18</v>
-      </c>
-      <c r="G6">
+      <c r="C6" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.0588235294117647</v>
       </c>
-      <c r="H6">
-        <v>28</v>
-      </c>
-      <c r="I6">
+      <c r="H6" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1.6470588235294117</v>
       </c>
-      <c r="J6">
-        <v>46</v>
+      <c r="J6" t="n">
+        <v>46.0</v>
       </c>
       <c r="K6" t="s">
         <v>291</v>
@@ -34077,32 +33804,32 @@
       <c r="M6" t="s">
         <v>325</v>
       </c>
-      <c r="N6">
-        <v>34</v>
-      </c>
-      <c r="O6">
-        <v>58</v>
-      </c>
-      <c r="P6">
-        <v>75</v>
-      </c>
-      <c r="Q6">
-        <v>133</v>
-      </c>
-      <c r="R6">
-        <v>16</v>
-      </c>
-      <c r="S6">
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="T6">
-        <v>33</v>
-      </c>
-      <c r="U6">
+      <c r="N6" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="T6" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.9411764705882353</v>
       </c>
-      <c r="V6">
-        <v>49</v>
+      <c r="V6" t="n">
+        <v>49.0</v>
       </c>
       <c r="W6" t="s">
         <v>296</v>
@@ -34114,36 +33841,36 @@
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7">
-        <v>111</v>
-      </c>
-      <c r="D7">
-        <v>86</v>
-      </c>
-      <c r="E7">
-        <v>197</v>
-      </c>
-      <c r="F7">
-        <v>34</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>39</v>
-      </c>
-      <c r="I7">
+      <c r="C7" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.2941176470588234</v>
       </c>
-      <c r="J7">
-        <v>73</v>
+      <c r="J7" t="n">
+        <v>73.0</v>
       </c>
       <c r="K7" t="s">
         <v>292</v>
@@ -34154,32 +33881,32 @@
       <c r="M7" t="s">
         <v>326</v>
       </c>
-      <c r="N7">
-        <v>34</v>
-      </c>
-      <c r="O7">
-        <v>50</v>
-      </c>
-      <c r="P7">
-        <v>54</v>
-      </c>
-      <c r="Q7">
-        <v>104</v>
-      </c>
-      <c r="R7">
-        <v>15</v>
-      </c>
-      <c r="S7">
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="T7">
-        <v>11</v>
-      </c>
-      <c r="U7">
+      <c r="N7" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="T7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="U7" t="n">
         <v>0.6470588235294118</v>
       </c>
-      <c r="V7">
-        <v>26</v>
+      <c r="V7" t="n">
+        <v>26.0</v>
       </c>
       <c r="W7" t="s">
         <v>341</v>
@@ -34191,36 +33918,36 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C8">
-        <v>76</v>
-      </c>
-      <c r="D8">
-        <v>81</v>
-      </c>
-      <c r="E8">
-        <v>157</v>
-      </c>
-      <c r="F8">
-        <v>24</v>
-      </c>
-      <c r="G8">
+      <c r="C8" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.411764705882353</v>
       </c>
-      <c r="H8">
-        <v>20</v>
-      </c>
-      <c r="I8">
+      <c r="H8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.1764705882352942</v>
       </c>
-      <c r="J8">
-        <v>44</v>
+      <c r="J8" t="n">
+        <v>44.0</v>
       </c>
       <c r="K8" t="s">
         <v>293</v>
@@ -34231,32 +33958,32 @@
       <c r="M8" t="s">
         <v>327</v>
       </c>
-      <c r="N8">
-        <v>34</v>
-      </c>
-      <c r="O8">
-        <v>76</v>
-      </c>
-      <c r="P8">
-        <v>88</v>
-      </c>
-      <c r="Q8">
-        <v>164</v>
-      </c>
-      <c r="R8">
-        <v>30</v>
-      </c>
-      <c r="S8">
+      <c r="N8" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.7647058823529411</v>
       </c>
-      <c r="T8">
-        <v>25</v>
-      </c>
-      <c r="U8">
+      <c r="T8" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.4705882352941178</v>
       </c>
-      <c r="V8">
-        <v>55</v>
+      <c r="V8" t="n">
+        <v>55.0</v>
       </c>
       <c r="W8" t="s">
         <v>342</v>
@@ -34268,36 +33995,36 @@
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9">
-        <v>92</v>
-      </c>
-      <c r="D9">
-        <v>71</v>
-      </c>
-      <c r="E9">
-        <v>163</v>
-      </c>
-      <c r="F9">
-        <v>38</v>
-      </c>
-      <c r="G9">
-        <v>2.2352941176470589</v>
-      </c>
-      <c r="H9">
-        <v>29</v>
-      </c>
-      <c r="I9">
+      <c r="C9" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.235294117647059</v>
+      </c>
+      <c r="H9" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.7058823529411764</v>
       </c>
-      <c r="J9">
-        <v>67</v>
+      <c r="J9" t="n">
+        <v>67.0</v>
       </c>
       <c r="K9" t="s">
         <v>294</v>
@@ -34308,32 +34035,32 @@
       <c r="M9" t="s">
         <v>328</v>
       </c>
-      <c r="N9">
-        <v>34</v>
-      </c>
-      <c r="O9">
-        <v>70</v>
-      </c>
-      <c r="P9">
-        <v>92</v>
-      </c>
-      <c r="Q9">
-        <v>162</v>
-      </c>
-      <c r="R9">
-        <v>20</v>
-      </c>
-      <c r="S9">
+      <c r="N9" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.1764705882352942</v>
       </c>
-      <c r="T9">
-        <v>28</v>
-      </c>
-      <c r="U9">
+      <c r="T9" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.6470588235294117</v>
       </c>
-      <c r="V9">
-        <v>48</v>
+      <c r="V9" t="n">
+        <v>48.0</v>
       </c>
       <c r="W9" t="s">
         <v>343</v>
@@ -34345,36 +34072,36 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10">
-        <v>95</v>
-      </c>
-      <c r="D10">
-        <v>90</v>
-      </c>
-      <c r="E10">
-        <v>185</v>
-      </c>
-      <c r="F10">
-        <v>29</v>
-      </c>
-      <c r="G10">
+      <c r="C10" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.7058823529411764</v>
       </c>
-      <c r="H10">
-        <v>26</v>
-      </c>
-      <c r="I10">
+      <c r="H10" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.5294117647058822</v>
       </c>
-      <c r="J10">
-        <v>55</v>
+      <c r="J10" t="n">
+        <v>55.0</v>
       </c>
       <c r="K10" t="s">
         <v>295</v>
@@ -34385,32 +34112,32 @@
       <c r="M10" t="s">
         <v>329</v>
       </c>
-      <c r="N10">
-        <v>34</v>
-      </c>
-      <c r="O10">
-        <v>55</v>
-      </c>
-      <c r="P10">
-        <v>81</v>
-      </c>
-      <c r="Q10">
-        <v>136</v>
-      </c>
-      <c r="R10">
-        <v>21</v>
-      </c>
-      <c r="S10">
+      <c r="N10" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.2352941176470589</v>
       </c>
-      <c r="T10">
-        <v>21</v>
-      </c>
-      <c r="U10">
+      <c r="T10" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.2352941176470589</v>
       </c>
-      <c r="V10">
-        <v>42</v>
+      <c r="V10" t="n">
+        <v>42.0</v>
       </c>
       <c r="W10" t="s">
         <v>344</v>
@@ -34422,36 +34149,36 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11">
-        <v>87</v>
-      </c>
-      <c r="D11">
-        <v>76</v>
-      </c>
-      <c r="E11">
-        <v>163</v>
-      </c>
-      <c r="F11">
-        <v>24</v>
-      </c>
-      <c r="G11">
+      <c r="C11" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.411764705882353</v>
       </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-      <c r="I11">
+      <c r="H11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.1764705882352942</v>
       </c>
-      <c r="J11">
-        <v>44</v>
+      <c r="J11" t="n">
+        <v>44.0</v>
       </c>
       <c r="K11" t="s">
         <v>296</v>
@@ -34462,32 +34189,32 @@
       <c r="M11" t="s">
         <v>330</v>
       </c>
-      <c r="N11">
-        <v>34</v>
-      </c>
-      <c r="O11">
-        <v>94</v>
-      </c>
-      <c r="P11">
-        <v>69</v>
-      </c>
-      <c r="Q11">
-        <v>163</v>
-      </c>
-      <c r="R11">
-        <v>35</v>
-      </c>
-      <c r="S11">
+      <c r="N11" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="S11" t="n">
         <v>2.0588235294117645</v>
       </c>
-      <c r="T11">
-        <v>22</v>
-      </c>
-      <c r="U11">
+      <c r="T11" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.2941176470588236</v>
       </c>
-      <c r="V11">
-        <v>57</v>
+      <c r="V11" t="n">
+        <v>57.0</v>
       </c>
       <c r="W11" t="s">
         <v>345</v>
@@ -34499,36 +34226,36 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12">
-        <v>87</v>
-      </c>
-      <c r="D12">
-        <v>91</v>
-      </c>
-      <c r="E12">
-        <v>178</v>
-      </c>
-      <c r="F12">
-        <v>29</v>
-      </c>
-      <c r="G12">
+      <c r="C12" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.7058823529411764</v>
       </c>
-      <c r="H12">
-        <v>25</v>
-      </c>
-      <c r="I12">
+      <c r="H12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.4705882352941178</v>
       </c>
-      <c r="J12">
-        <v>54</v>
+      <c r="J12" t="n">
+        <v>54.0</v>
       </c>
       <c r="K12" t="s">
         <v>297</v>
@@ -34539,32 +34266,32 @@
       <c r="M12" t="s">
         <v>331</v>
       </c>
-      <c r="N12">
-        <v>34</v>
-      </c>
-      <c r="O12">
-        <v>70</v>
-      </c>
-      <c r="P12">
-        <v>69</v>
-      </c>
-      <c r="Q12">
-        <v>139</v>
-      </c>
-      <c r="R12">
-        <v>30</v>
-      </c>
-      <c r="S12">
+      <c r="N12" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.7647058823529411</v>
       </c>
-      <c r="T12">
-        <v>24</v>
-      </c>
-      <c r="U12">
+      <c r="T12" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.411764705882353</v>
       </c>
-      <c r="V12">
-        <v>54</v>
+      <c r="V12" t="n">
+        <v>54.0</v>
       </c>
       <c r="W12" t="s">
         <v>346</v>
@@ -34576,36 +34303,36 @@
         <v>378</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13">
-        <v>71</v>
-      </c>
-      <c r="D13">
-        <v>58</v>
-      </c>
-      <c r="E13">
-        <v>129</v>
-      </c>
-      <c r="F13">
-        <v>17</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>15</v>
-      </c>
-      <c r="I13">
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="J13">
-        <v>32</v>
+      <c r="C13" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="J13" t="n">
+        <v>32.0</v>
       </c>
       <c r="K13" t="s">
         <v>298</v>
@@ -34616,32 +34343,32 @@
       <c r="M13" t="s">
         <v>332</v>
       </c>
-      <c r="N13">
-        <v>34</v>
-      </c>
-      <c r="O13">
-        <v>80</v>
-      </c>
-      <c r="P13">
-        <v>93</v>
-      </c>
-      <c r="Q13">
-        <v>173</v>
-      </c>
-      <c r="R13">
-        <v>22</v>
-      </c>
-      <c r="S13">
+      <c r="N13" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S13" t="n">
         <v>1.2941176470588236</v>
       </c>
-      <c r="T13">
-        <v>32</v>
-      </c>
-      <c r="U13">
+      <c r="T13" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.8823529411764706</v>
       </c>
-      <c r="V13">
-        <v>54</v>
+      <c r="V13" t="n">
+        <v>54.0</v>
       </c>
       <c r="W13" t="s">
         <v>347</v>
@@ -34653,36 +34380,36 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14">
-        <v>76</v>
-      </c>
-      <c r="D14">
-        <v>74</v>
-      </c>
-      <c r="E14">
-        <v>150</v>
-      </c>
-      <c r="F14">
-        <v>33</v>
-      </c>
-      <c r="G14">
+      <c r="C14" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.9411764705882353</v>
       </c>
-      <c r="H14">
-        <v>16</v>
-      </c>
-      <c r="I14">
-        <v>0.94117647058823528</v>
-      </c>
-      <c r="J14">
-        <v>49</v>
+      <c r="H14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="J14" t="n">
+        <v>49.0</v>
       </c>
       <c r="K14" t="s">
         <v>299</v>
@@ -34693,32 +34420,32 @@
       <c r="M14" t="s">
         <v>333</v>
       </c>
-      <c r="N14">
-        <v>34</v>
-      </c>
-      <c r="O14">
-        <v>63</v>
-      </c>
-      <c r="P14">
-        <v>59</v>
-      </c>
-      <c r="Q14">
-        <v>122</v>
-      </c>
-      <c r="R14">
-        <v>21</v>
-      </c>
-      <c r="S14">
+      <c r="N14" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.2352941176470589</v>
       </c>
-      <c r="T14">
-        <v>20</v>
-      </c>
-      <c r="U14">
+      <c r="T14" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.1764705882352942</v>
       </c>
-      <c r="V14">
-        <v>41</v>
+      <c r="V14" t="n">
+        <v>41.0</v>
       </c>
       <c r="W14" t="s">
         <v>297</v>
@@ -34730,36 +34457,36 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15">
-        <v>72</v>
-      </c>
-      <c r="D15">
-        <v>82</v>
-      </c>
-      <c r="E15">
-        <v>154</v>
-      </c>
-      <c r="F15">
-        <v>24</v>
-      </c>
-      <c r="G15">
+      <c r="C15" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.411764705882353</v>
       </c>
-      <c r="H15">
-        <v>30</v>
-      </c>
-      <c r="I15">
+      <c r="H15" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.7647058823529411</v>
       </c>
-      <c r="J15">
-        <v>54</v>
+      <c r="J15" t="n">
+        <v>54.0</v>
       </c>
       <c r="K15" t="s">
         <v>297</v>
@@ -34770,32 +34497,32 @@
       <c r="M15" t="s">
         <v>334</v>
       </c>
-      <c r="N15">
-        <v>34</v>
-      </c>
-      <c r="O15">
-        <v>110</v>
-      </c>
-      <c r="P15">
-        <v>107</v>
-      </c>
-      <c r="Q15">
-        <v>217</v>
-      </c>
-      <c r="R15">
-        <v>23</v>
-      </c>
-      <c r="S15">
+      <c r="N15" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.3529411764705883</v>
       </c>
-      <c r="T15">
-        <v>36</v>
-      </c>
-      <c r="U15">
+      <c r="T15" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="U15" t="n">
         <v>2.1176470588235294</v>
       </c>
-      <c r="V15">
-        <v>59</v>
+      <c r="V15" t="n">
+        <v>59.0</v>
       </c>
       <c r="W15" t="s">
         <v>348</v>
@@ -34807,36 +34534,36 @@
         <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C16">
-        <v>58</v>
-      </c>
-      <c r="D16">
-        <v>58</v>
-      </c>
-      <c r="E16">
-        <v>116</v>
-      </c>
-      <c r="F16">
-        <v>20</v>
-      </c>
-      <c r="G16">
+      <c r="C16" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.1764705882352942</v>
       </c>
-      <c r="H16">
-        <v>21</v>
-      </c>
-      <c r="I16">
+      <c r="H16" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.2352941176470589</v>
       </c>
-      <c r="J16">
-        <v>41</v>
+      <c r="J16" t="n">
+        <v>41.0</v>
       </c>
       <c r="K16" t="s">
         <v>300</v>
@@ -34847,32 +34574,32 @@
       <c r="M16" t="s">
         <v>335</v>
       </c>
-      <c r="N16">
-        <v>34</v>
-      </c>
-      <c r="O16">
-        <v>71</v>
-      </c>
-      <c r="P16">
-        <v>90</v>
-      </c>
-      <c r="Q16">
-        <v>161</v>
-      </c>
-      <c r="R16">
-        <v>20</v>
-      </c>
-      <c r="S16">
+      <c r="N16" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.1764705882352942</v>
       </c>
-      <c r="T16">
-        <v>32</v>
-      </c>
-      <c r="U16">
+      <c r="T16" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.8823529411764706</v>
       </c>
-      <c r="V16">
-        <v>52</v>
+      <c r="V16" t="n">
+        <v>52.0</v>
       </c>
       <c r="W16" t="s">
         <v>349</v>
@@ -34884,36 +34611,36 @@
         <v>382</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17">
-        <v>87</v>
-      </c>
-      <c r="D17">
-        <v>82</v>
-      </c>
-      <c r="E17">
-        <v>169</v>
-      </c>
-      <c r="F17">
-        <v>26</v>
-      </c>
-      <c r="G17">
+      <c r="C17" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.5294117647058822</v>
       </c>
-      <c r="H17">
-        <v>26</v>
-      </c>
-      <c r="I17">
+      <c r="H17" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1.5294117647058822</v>
       </c>
-      <c r="J17">
-        <v>52</v>
+      <c r="J17" t="n">
+        <v>52.0</v>
       </c>
       <c r="K17" t="s">
         <v>301</v>
@@ -34924,32 +34651,32 @@
       <c r="M17" t="s">
         <v>336</v>
       </c>
-      <c r="N17">
-        <v>34</v>
-      </c>
-      <c r="O17">
-        <v>69</v>
-      </c>
-      <c r="P17">
-        <v>55</v>
-      </c>
-      <c r="Q17">
-        <v>124</v>
-      </c>
-      <c r="R17">
-        <v>20</v>
-      </c>
-      <c r="S17">
+      <c r="N17" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.1764705882352942</v>
       </c>
-      <c r="T17">
-        <v>21</v>
-      </c>
-      <c r="U17">
+      <c r="T17" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.2352941176470589</v>
       </c>
-      <c r="V17">
-        <v>41</v>
+      <c r="V17" t="n">
+        <v>41.0</v>
       </c>
       <c r="W17" t="s">
         <v>350</v>
@@ -34961,36 +34688,36 @@
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C18">
-        <v>79</v>
-      </c>
-      <c r="D18">
-        <v>64</v>
-      </c>
-      <c r="E18">
-        <v>143</v>
-      </c>
-      <c r="F18">
-        <v>21</v>
-      </c>
-      <c r="G18">
+      <c r="C18" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.2352941176470589</v>
       </c>
-      <c r="H18">
-        <v>23</v>
-      </c>
-      <c r="I18">
+      <c r="H18" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1.3529411764705883</v>
       </c>
-      <c r="J18">
-        <v>44</v>
+      <c r="J18" t="n">
+        <v>44.0</v>
       </c>
       <c r="K18" t="s">
         <v>302</v>
@@ -35001,32 +34728,32 @@
       <c r="M18" t="s">
         <v>336</v>
       </c>
-      <c r="N18">
-        <v>34</v>
-      </c>
-      <c r="O18">
-        <v>101</v>
-      </c>
-      <c r="P18">
-        <v>99</v>
-      </c>
-      <c r="Q18">
-        <v>200</v>
-      </c>
-      <c r="R18">
-        <v>40</v>
-      </c>
-      <c r="S18">
+      <c r="N18" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="S18" t="n">
         <v>2.3529411764705883</v>
       </c>
-      <c r="T18">
-        <v>30</v>
-      </c>
-      <c r="U18">
+      <c r="T18" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.7647058823529411</v>
       </c>
-      <c r="V18">
-        <v>70</v>
+      <c r="V18" t="n">
+        <v>70.0</v>
       </c>
       <c r="W18" t="s">
         <v>351</v>
@@ -35038,36 +34765,36 @@
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C19">
-        <v>64</v>
-      </c>
-      <c r="D19">
-        <v>77</v>
-      </c>
-      <c r="E19">
-        <v>141</v>
-      </c>
-      <c r="F19">
-        <v>23</v>
-      </c>
-      <c r="G19">
+      <c r="C19" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.3529411764705883</v>
       </c>
-      <c r="H19">
-        <v>30</v>
-      </c>
-      <c r="I19">
+      <c r="H19" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.7647058823529411</v>
       </c>
-      <c r="J19">
-        <v>53</v>
+      <c r="J19" t="n">
+        <v>53.0</v>
       </c>
       <c r="K19" t="s">
         <v>303</v>
@@ -35078,32 +34805,32 @@
       <c r="M19" t="s">
         <v>337</v>
       </c>
-      <c r="N19">
-        <v>34</v>
-      </c>
-      <c r="O19">
-        <v>98</v>
-      </c>
-      <c r="P19">
-        <v>109</v>
-      </c>
-      <c r="Q19">
-        <v>207</v>
-      </c>
-      <c r="R19">
-        <v>38</v>
-      </c>
-      <c r="S19">
-        <v>2.2352941176470589</v>
-      </c>
-      <c r="T19">
-        <v>31</v>
-      </c>
-      <c r="U19">
+      <c r="N19" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.235294117647059</v>
+      </c>
+      <c r="T19" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.8235294117647058</v>
       </c>
-      <c r="V19">
-        <v>69</v>
+      <c r="V19" t="n">
+        <v>69.0</v>
       </c>
       <c r="W19" t="s">
         <v>352</v>
@@ -35116,28 +34843,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
-    <col min="6" max="6" width="85" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>385</v>
       </c>
@@ -35154,7 +34873,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -35174,7 +34893,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -35194,7 +34913,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -35214,7 +34933,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -35234,7 +34953,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -35254,7 +34973,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -35274,7 +34993,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -35294,7 +35013,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -35314,7 +35033,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -35334,7 +35053,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -35354,7 +35073,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -35374,7 +35093,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -35394,7 +35113,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -35414,7 +35133,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -35434,7 +35153,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -35454,7 +35173,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -35474,7 +35193,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -35494,7 +35213,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -35515,6 +35234,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>